--- a/images.xlsx
+++ b/images.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="723">
   <si>
     <t>acl</t>
   </si>
@@ -2182,6 +2182,13 @@
   <si>
     <t>pkgconfig</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tisdk-base-image 384</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpio-native</t>
   </si>
 </sst>
 </file>
@@ -2534,20 +2541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:F723"/>
+  <dimension ref="C6:G724"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A702" workbookViewId="0">
+      <selection activeCell="E729" sqref="E729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="35.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>223</v>
       </c>
@@ -2555,13 +2562,16 @@
         <v>717</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -2571,8 +2581,11 @@
       <c r="F7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>1</v>
       </c>
@@ -2582,71 +2595,92 @@
       <c r="F8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F9" t="s">
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F10" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G10" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E11" t="s">
         <v>224</v>
       </c>
       <c r="F11" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
         <v>225</v>
       </c>
       <c r="F12" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
         <v>226</v>
       </c>
       <c r="F13" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
         <v>227</v>
       </c>
       <c r="F14" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
         <v>228</v>
       </c>
       <c r="F15" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
         <v>229</v>
       </c>
       <c r="F16" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>2</v>
       </c>
@@ -2656,62 +2690,74 @@
       <c r="F18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
         <v>230</v>
       </c>
       <c r="F19" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
         <v>231</v>
       </c>
       <c r="F20" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
         <v>232</v>
       </c>
       <c r="F21" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
+      <c r="G21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F25" t="s">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G25" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>3</v>
       </c>
@@ -2721,8 +2767,11 @@
       <c r="F28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -2732,13 +2781,16 @@
       <c r="F29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>5</v>
       </c>
@@ -2748,8 +2800,11 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
         <v>6</v>
       </c>
@@ -2759,8 +2814,11 @@
       <c r="F32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>7</v>
       </c>
@@ -2770,13 +2828,16 @@
       <c r="F33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F34" t="s">
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>8</v>
       </c>
@@ -2786,16 +2847,22 @@
       <c r="F35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>233</v>
       </c>
       <c r="F36" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>9</v>
       </c>
@@ -2805,8 +2872,11 @@
       <c r="F37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>10</v>
       </c>
@@ -2816,8 +2886,11 @@
       <c r="F38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>11</v>
       </c>
@@ -2827,8 +2900,11 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>12</v>
       </c>
@@ -2838,13 +2914,16 @@
       <c r="F40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F41" t="s">
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G41" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>13</v>
       </c>
@@ -2854,13 +2933,16 @@
       <c r="F42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F43" t="s">
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G43" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>14</v>
       </c>
@@ -2870,8 +2952,11 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>15</v>
       </c>
@@ -2881,16 +2966,22 @@
       <c r="F45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
         <v>234</v>
       </c>
       <c r="F46" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
         <v>16</v>
       </c>
@@ -2900,66 +2991,81 @@
       <c r="F47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F48" t="s">
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G48" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
         <v>235</v>
       </c>
       <c r="F49" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
         <v>236</v>
       </c>
       <c r="F50" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E51" t="s">
         <v>237</v>
       </c>
       <c r="F51" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F52" t="s">
+      <c r="G51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G52" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E53" t="s">
-        <v>238</v>
-      </c>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F53" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E54" t="s">
-        <v>239</v>
-      </c>
+      <c r="G53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F54" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
         <v>240</v>
       </c>
       <c r="F55" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
         <v>17</v>
       </c>
@@ -2969,13 +3075,16 @@
       <c r="F56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F57" t="s">
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G57" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
         <v>18</v>
       </c>
@@ -2985,8 +3094,11 @@
       <c r="F58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
         <v>19</v>
       </c>
@@ -2996,8 +3108,11 @@
       <c r="F59" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
         <v>20</v>
       </c>
@@ -3007,13 +3122,16 @@
       <c r="F60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F61" t="s">
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G61" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
         <v>21</v>
       </c>
@@ -3023,52 +3141,61 @@
       <c r="F62" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F63" t="s">
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G63" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E64" t="s">
         <v>241</v>
       </c>
       <c r="F64" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F65" t="s">
+      <c r="G64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G65" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E66" t="s">
         <v>242</v>
       </c>
       <c r="F66" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F67" t="s">
+      <c r="G66" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G67" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E68" t="s">
-        <v>243</v>
-      </c>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F68" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F69" t="s">
+      <c r="G68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G69" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
         <v>22</v>
       </c>
@@ -3078,24 +3205,33 @@
       <c r="F70" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E71" t="s">
         <v>244</v>
       </c>
       <c r="F71" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E72" t="s">
         <v>245</v>
       </c>
       <c r="F72" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D73" t="s">
         <v>23</v>
       </c>
@@ -3105,8 +3241,11 @@
       <c r="F73" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D74" s="1"/>
       <c r="E74" t="s">
         <v>246</v>
@@ -3114,16 +3253,22 @@
       <c r="F74" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E75" t="s">
         <v>247</v>
       </c>
       <c r="F75" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
         <v>24</v>
       </c>
@@ -3133,8 +3278,11 @@
       <c r="F76" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
         <v>25</v>
       </c>
@@ -3144,4926 +3292,5936 @@
       <c r="F77" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F78" t="s">
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G78" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F79" t="s">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E79" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G80" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F80" t="s">
+    <row r="81" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G81" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D81" t="s">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D82" t="s">
         <v>26</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>26</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D82" t="s">
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D83" t="s">
         <v>27</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>27</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G84" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D84" t="s">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D85" t="s">
         <v>28</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>28</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D85" t="s">
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D86" t="s">
         <v>29</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>29</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D86" t="s">
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D87" t="s">
         <v>30</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>30</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G88" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E88" t="s">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E89" t="s">
         <v>248</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D89" t="s">
+      <c r="G89" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D90" t="s">
         <v>31</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>31</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G91" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D91" t="s">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D92" t="s">
         <v>32</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>32</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E92" t="s">
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E93" t="s">
         <v>249</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F93" t="s">
+      <c r="G93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G94" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D94" t="s">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
         <v>33</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>33</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D95" t="s">
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D96" t="s">
         <v>34</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>34</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E96" t="s">
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E97" t="s">
         <v>250</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F97" t="s">
+      <c r="G97" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G98" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D98" t="s">
+    <row r="99" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D99" t="s">
         <v>35</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>35</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D99" t="s">
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D100" t="s">
         <v>36</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>36</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E100" t="s">
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E101" t="s">
         <v>251</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E101" t="s">
+      <c r="G101" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E102" t="s">
         <v>252</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D102" t="s">
+      <c r="G102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
         <v>37</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>37</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E103" t="s">
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E104" t="s">
         <v>253</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D104" t="s">
+      <c r="G104" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D105" t="s">
         <v>38</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>38</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D105" t="s">
+      <c r="G105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
         <v>39</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F106" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D106" t="s">
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D107" t="s">
         <v>40</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>40</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D107" t="s">
+      <c r="G107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D108" t="s">
         <v>41</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>41</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E108" t="s">
+      <c r="G108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E109" t="s">
         <v>254</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D109" t="s">
+      <c r="G109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D110" t="s">
         <v>42</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>42</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F110" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E110" t="s">
+      <c r="G110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E111" t="s">
         <v>255</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F111" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D111" t="s">
+      <c r="G111" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D112" t="s">
         <v>43</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E112" t="s">
         <v>43</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F112" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E112" t="s">
+      <c r="G112" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E113" t="s">
         <v>256</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E113" t="s">
+      <c r="G113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F114" t="s">
         <v>257</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G114" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F114" t="s">
+    <row r="115" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G115" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F115" t="s">
+    <row r="116" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G116" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D116" t="s">
+    <row r="117" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D117" t="s">
         <v>44</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>44</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D117" t="s">
+      <c r="G117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D118" t="s">
         <v>45</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>45</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F118" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F118" t="s">
+      <c r="G118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G119" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E119" t="s">
+    <row r="120" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E120" t="s">
         <v>258</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F120" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E120" t="s">
+      <c r="G120" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E121" t="s">
         <v>259</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F121" t="s">
+      <c r="G121" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G122" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E122" t="s">
+    <row r="123" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E123" t="s">
         <v>260</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F123" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D123" t="s">
+      <c r="G123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D124" t="s">
         <v>46</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>46</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D124" t="s">
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D125" t="s">
         <v>47</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E125" t="s">
         <v>47</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F125" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F125" t="s">
+      <c r="G125" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G126" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E126" t="s">
+    <row r="127" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E127" t="s">
         <v>261</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F127" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D127" t="s">
+      <c r="G127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D128" t="s">
         <v>48</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>48</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F128" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D128" t="s">
+      <c r="G128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D129" t="s">
         <v>49</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E129" t="s">
         <v>49</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F129" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E129" t="s">
+      <c r="G129" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E130" t="s">
         <v>262</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F130" t="s">
+      <c r="G130" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G131" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E131" t="s">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E132" t="s">
         <v>263</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F132" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F132" t="s">
+      <c r="G132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G133" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E133" t="s">
+    <row r="134" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E134" t="s">
         <v>264</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F134" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F134" t="s">
+      <c r="G134" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G135" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E135" t="s">
+    <row r="136" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F136" t="s">
         <v>265</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G136" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F136" t="s">
+    <row r="137" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G137" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D137" t="s">
+    <row r="138" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D138" t="s">
         <v>50</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
         <v>50</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F138" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F138" t="s">
+      <c r="G138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G139" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D139" t="s">
+    <row r="140" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D140" t="s">
         <v>51</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>51</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F140" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D140" t="s">
+      <c r="G140" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D141" t="s">
         <v>52</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E141" t="s">
         <v>52</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D141" t="s">
+      <c r="G141" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D142" t="s">
         <v>53</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E142" t="s">
         <v>53</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F142" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F142" t="s">
+      <c r="G142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G143" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D143" t="s">
+    <row r="144" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D144" t="s">
         <v>54</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E144" t="s">
         <v>54</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D144" t="s">
+      <c r="G144" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D145" t="s">
         <v>55</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E145" t="s">
         <v>55</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F145" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E145" t="s">
+      <c r="G145" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F146" t="s">
         <v>266</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G146" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E146" t="s">
+    <row r="147" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E147" t="s">
         <v>267</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F147" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F147" t="s">
+      <c r="G147" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G148" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D148" t="s">
+    <row r="149" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D149" t="s">
         <v>56</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E149" t="s">
         <v>56</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D149" t="s">
+      <c r="G149" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D150" t="s">
         <v>57</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E150" t="s">
         <v>57</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F150" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F150" t="s">
+      <c r="G150" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G151" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F151" t="s">
+    <row r="152" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G152" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D152" t="s">
+    <row r="153" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D153" t="s">
         <v>58</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E153" t="s">
         <v>58</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D153" t="s">
+      <c r="G153" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D154" t="s">
         <v>59</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E154" t="s">
         <v>59</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F154" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F154" t="s">
+      <c r="G154" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G155" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D155" t="s">
+    <row r="156" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D156" t="s">
         <v>60</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E156" t="s">
         <v>60</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F156" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F156" t="s">
+      <c r="G156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G157" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F157" t="s">
+    <row r="158" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G158" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E158" t="s">
+    <row r="159" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F159" t="s">
         <v>268</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G159" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F159" t="s">
+    <row r="160" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G160" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F160" t="s">
+    <row r="161" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G161" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F161" t="s">
+    <row r="162" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G162" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D162" t="s">
+    <row r="163" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D163" t="s">
         <v>61</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E163" t="s">
         <v>61</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F163" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D163" t="s">
+      <c r="G163" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D164" t="s">
         <v>62</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E164" t="s">
         <v>62</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F164" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F164" t="s">
+      <c r="G164" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G165" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D165" t="s">
+    <row r="166" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D166" t="s">
         <v>63</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E166" t="s">
         <v>63</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F166" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E166" t="s">
+      <c r="G166" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E167" t="s">
         <v>269</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F167" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D167" t="s">
+      <c r="G167" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D168" t="s">
         <v>64</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E168" t="s">
         <v>64</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F168" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E168" t="s">
+      <c r="G168" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E169" t="s">
         <v>270</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F169" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E169" t="s">
+      <c r="G169" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E170" t="s">
         <v>271</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F170" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E170" t="s">
+      <c r="G170" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E171" t="s">
         <v>272</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F171" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E171" t="s">
+      <c r="G171" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="172" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E172" t="s">
         <v>273</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F172" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E172" t="s">
+      <c r="G172" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E173" t="s">
         <v>274</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F173" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E173" t="s">
+      <c r="G173" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E174" t="s">
         <v>275</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F174" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E174" t="s">
+      <c r="G174" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E175" t="s">
         <v>276</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F175" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E175" t="s">
+      <c r="G175" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E176" t="s">
         <v>277</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F176" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E176" t="s">
+      <c r="G176" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="177" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E177" t="s">
         <v>278</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F177" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E177" t="s">
+      <c r="G177" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="178" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E178" t="s">
         <v>279</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F178" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E178" t="s">
+      <c r="G178" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="179" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E179" t="s">
         <v>280</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E179" t="s">
+      <c r="G179" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="180" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E180" t="s">
         <v>281</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F180" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E180" t="s">
+      <c r="G180" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="181" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E181" t="s">
         <v>282</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F181" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E181" t="s">
+      <c r="G181" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="182" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E182" t="s">
         <v>283</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F182" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E182" t="s">
+      <c r="G182" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="183" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E183" t="s">
         <v>284</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F183" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E183" t="s">
+      <c r="G183" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="184" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E184" t="s">
         <v>285</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E184" t="s">
+      <c r="G184" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="185" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E185" t="s">
         <v>286</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F185" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F185" t="s">
+      <c r="G185" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="186" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G186" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D186" t="s">
+    <row r="187" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D187" t="s">
         <v>65</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E187" t="s">
         <v>65</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F187" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D187" t="s">
+      <c r="G187" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D188" t="s">
         <v>66</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E188" t="s">
         <v>66</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F188" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D188" t="s">
+      <c r="G188" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D189" t="s">
         <v>67</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E189" t="s">
         <v>67</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F189" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E189" t="s">
+      <c r="G189" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E190" t="s">
         <v>287</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F190" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F190" t="s">
+      <c r="G190" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="191" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G191" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F191" t="s">
+    <row r="192" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G192" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F192" t="s">
+    <row r="193" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G193" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F193" t="s">
+    <row r="194" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G194" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F194" t="s">
+    <row r="195" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G195" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F195" t="s">
+    <row r="196" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G196" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F196" t="s">
+    <row r="197" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G197" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D197" t="s">
+    <row r="198" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D198" t="s">
         <v>68</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E198" t="s">
         <v>68</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F198" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F198" t="s">
+      <c r="G198" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G199" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E199" t="s">
+    <row r="200" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F200" t="s">
         <v>288</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G200" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F200" t="s">
+    <row r="201" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G201" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E201" t="s">
+    <row r="202" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E202" t="s">
         <v>289</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F202" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F202" t="s">
+      <c r="G202" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="203" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G203" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F203" t="s">
+    <row r="204" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G204" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F204" t="s">
+    <row r="205" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G205" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E205" t="s">
+    <row r="206" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F206" t="s">
         <v>290</v>
       </c>
-      <c r="F205" t="s">
+      <c r="G206" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E206" t="s">
+    <row r="207" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F207" t="s">
         <v>291</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G207" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E207" t="s">
+    <row r="208" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E208" t="s">
         <v>292</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F208" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E208" t="s">
+      <c r="G208" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="209" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E209" t="s">
         <v>293</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F209" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E209" t="s">
+      <c r="G209" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="210" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E210" t="s">
         <v>294</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F210" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E210" t="s">
+      <c r="G210" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E211" t="s">
         <v>295</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F211" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F211" t="s">
+      <c r="G211" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="212" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G212" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D212" t="s">
+    <row r="213" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D213" t="s">
         <v>69</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E213" t="s">
         <v>69</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F213" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F213" t="s">
+      <c r="G213" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G214" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E214" t="s">
+    <row r="215" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E215" t="s">
         <v>296</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F215" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E215" t="s">
+      <c r="G215" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="216" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E216" t="s">
         <v>297</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F216" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E216" t="s">
+      <c r="G216" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="217" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E217" t="s">
         <v>298</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F217" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F217" t="s">
+      <c r="G217" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="218" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G218" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D218" t="s">
+    <row r="219" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D219" t="s">
         <v>70</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E219" t="s">
         <v>70</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F219" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E219" t="s">
+      <c r="G219" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="220" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E220" t="s">
         <v>299</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F220" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E220" t="s">
+      <c r="G220" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="221" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E221" t="s">
         <v>300</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F221" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D221" t="s">
+      <c r="G221" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="222" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D222" t="s">
         <v>71</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E222" t="s">
         <v>71</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F222" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D222" t="s">
+      <c r="G222" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="223" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D223" t="s">
         <v>72</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E223" t="s">
         <v>72</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F223" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F223" t="s">
+      <c r="G223" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G224" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F224" t="s">
+    <row r="225" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G225" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D225" t="s">
+    <row r="226" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D226" t="s">
         <v>73</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E226" t="s">
         <v>73</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F226" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D226" t="s">
+      <c r="G226" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="227" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D227" t="s">
         <v>74</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E227" t="s">
         <v>74</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F227" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E227" t="s">
+      <c r="G227" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E228" t="s">
         <v>301</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F228" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F228" t="s">
+      <c r="G228" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="229" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G229" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F229" t="s">
+    <row r="230" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G230" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D230" t="s">
+    <row r="231" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D231" t="s">
         <v>75</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E231" t="s">
         <v>75</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F231" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F231" t="s">
+      <c r="G231" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="232" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G232" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E232" t="s">
+    <row r="233" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E233" t="s">
         <v>302</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F233" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E233" t="s">
+      <c r="G233" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="234" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E234" t="s">
         <v>303</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F234" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E234" t="s">
+      <c r="G234" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="235" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E235" t="s">
         <v>304</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F235" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D235" t="s">
+      <c r="G235" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="236" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D236" t="s">
         <v>76</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E236" t="s">
         <v>76</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F236" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E236" t="s">
+      <c r="G236" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F237" t="s">
         <v>305</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G237" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F237" t="s">
+    <row r="238" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G238" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D238" t="s">
+    <row r="239" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D239" t="s">
         <v>77</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E239" t="s">
         <v>77</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F239" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D239" t="s">
+      <c r="G239" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D240" t="s">
         <v>78</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E240" t="s">
         <v>78</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F240" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D240" t="s">
+      <c r="G240" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="241" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D241" t="s">
         <v>79</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E241" t="s">
         <v>79</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F241" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D241" t="s">
+      <c r="G241" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="242" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D242" t="s">
         <v>80</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E242" t="s">
         <v>80</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F242" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E242" t="s">
+      <c r="G242" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="243" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F243" t="s">
         <v>306</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G243" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F243" t="s">
+    <row r="244" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G244" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F244" t="s">
+    <row r="245" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G245" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E245" t="s">
+    <row r="246" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E246" t="s">
         <v>307</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F246" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F246" t="s">
+      <c r="G246" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="247" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G247" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F247" t="s">
+    <row r="248" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G248" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F248" t="s">
+    <row r="249" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G249" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F249" t="s">
+    <row r="250" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G250" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E250" t="s">
+    <row r="251" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E251" t="s">
         <v>308</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F251" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F251" t="s">
+      <c r="G251" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="252" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G252" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F252" t="s">
+    <row r="253" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G253" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F253" t="s">
+    <row r="254" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G254" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F254" t="s">
+    <row r="255" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G255" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F255" t="s">
+    <row r="256" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G256" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E256" t="s">
+    <row r="257" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F257" t="s">
         <v>309</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G257" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F257" t="s">
+    <row r="258" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G258" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E258" t="s">
+    <row r="259" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E259" t="s">
         <v>310</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F259" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E259" t="s">
+      <c r="G259" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="260" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E260" t="s">
         <v>311</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F260" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F260" t="s">
+      <c r="G260" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="261" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G261" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D261" t="s">
+    <row r="262" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D262" t="s">
         <v>81</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E262" t="s">
         <v>81</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F262" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D262" t="s">
+      <c r="G262" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="263" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D263" t="s">
         <v>82</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E263" t="s">
         <v>82</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F263" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D263" t="s">
+      <c r="G263" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="264" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D264" t="s">
         <v>83</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E264" t="s">
         <v>83</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F264" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D264" t="s">
+      <c r="G264" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D265" t="s">
         <v>84</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E265" t="s">
         <v>84</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F265" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E265" t="s">
+      <c r="G265" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="266" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E266" t="s">
         <v>312</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F266" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D266" t="s">
+      <c r="G266" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="267" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D267" t="s">
         <v>85</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E267" t="s">
         <v>85</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F267" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E267" t="s">
+      <c r="G267" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="268" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E268" t="s">
         <v>313</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F268" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D268" t="s">
+      <c r="G268" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="269" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D269" t="s">
         <v>86</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E269" t="s">
         <v>86</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F269" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F269" t="s">
+      <c r="G269" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="270" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G270" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E270" t="s">
+    <row r="271" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E271" t="s">
         <v>314</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F271" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F271" t="s">
+      <c r="G271" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="272" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G272" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E272" t="s">
+    <row r="273" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E273" t="s">
         <v>315</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F273" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E273" t="s">
+      <c r="G273" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="274" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E274" t="s">
         <v>316</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F274" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F274" t="s">
+      <c r="G274" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="275" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G275" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E275" t="s">
+    <row r="276" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E276" t="s">
         <v>317</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F276" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D276" t="s">
+      <c r="G276" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="277" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D277" t="s">
         <v>87</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E277" t="s">
         <v>87</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F277" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E277" t="s">
+      <c r="G277" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="278" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F278" t="s">
         <v>318</v>
       </c>
-      <c r="F277" t="s">
+      <c r="G278" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E278" t="s">
+    <row r="279" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E279" t="s">
         <v>319</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F279" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E279" t="s">
+      <c r="G279" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="280" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E280" t="s">
         <v>320</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F280" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E280" t="s">
+      <c r="G280" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="281" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E281" t="s">
         <v>321</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F281" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E281" t="s">
+      <c r="G281" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="282" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E282" t="s">
         <v>322</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F282" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D282" t="s">
+      <c r="G282" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="283" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D283" t="s">
         <v>88</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E283" t="s">
         <v>88</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F283" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E283" t="s">
+      <c r="G283" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="284" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E284" t="s">
         <v>323</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F284" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F284" t="s">
+      <c r="G284" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="285" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G285" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D285" t="s">
+    <row r="286" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D286" t="s">
         <v>89</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E286" t="s">
         <v>89</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F286" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F286" t="s">
+      <c r="G286" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="287" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G287" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F287" t="s">
+    <row r="288" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G288" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E288" t="s">
+    <row r="289" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E289" t="s">
         <v>324</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F289" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D289" t="s">
+      <c r="G289" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="290" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D290" t="s">
         <v>90</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E290" t="s">
         <v>90</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F290" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D290" t="s">
+      <c r="G290" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D291" t="s">
         <v>91</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E291" t="s">
         <v>91</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F291" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E291" t="s">
+      <c r="G291" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="292" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E292" t="s">
         <v>325</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F292" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E292" t="s">
+      <c r="G292" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="293" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E293" t="s">
         <v>326</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F293" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D293" t="s">
+      <c r="G293" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="294" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D294" t="s">
         <v>92</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E294" t="s">
         <v>92</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F294" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E294" t="s">
+      <c r="G294" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="295" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E295" t="s">
         <v>327</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F295" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E295" t="s">
+      <c r="G295" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="296" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E296" t="s">
         <v>328</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F296" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F296" t="s">
+      <c r="G296" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="297" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G297" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D297" t="s">
+    <row r="298" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D298" t="s">
         <v>93</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E298" t="s">
         <v>93</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F298" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D298" t="s">
+      <c r="G298" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="299" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D299" t="s">
         <v>94</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E299" t="s">
         <v>94</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F299" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F299" t="s">
+      <c r="G299" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="300" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G300" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D300" t="s">
+    <row r="301" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D301" t="s">
         <v>95</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E301" t="s">
         <v>95</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F301" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E301" t="s">
+      <c r="G301" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="302" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E302" t="s">
         <v>329</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F302" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E302" t="s">
+      <c r="G302" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="303" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E303" t="s">
         <v>330</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F303" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F303" t="s">
+      <c r="G303" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="304" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G304" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E304" t="s">
+    <row r="305" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E305" t="s">
         <v>331</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F305" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F305" t="s">
+      <c r="G305" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="306" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G306" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F306" t="s">
+    <row r="307" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G307" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F307" t="s">
+    <row r="308" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G308" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F308" t="s">
+    <row r="309" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G309" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E309" t="s">
+    <row r="310" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E310" t="s">
         <v>332</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F310" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D310" t="s">
+      <c r="G310" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="311" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D311" t="s">
         <v>96</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E311" t="s">
         <v>96</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F311" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F311" t="s">
+      <c r="G311" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="312" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G312" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E312" t="s">
+    <row r="313" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E313" t="s">
         <v>333</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F313" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E313" t="s">
+      <c r="G313" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="314" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E314" t="s">
         <v>334</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F314" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E314" t="s">
+      <c r="G314" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="315" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E315" t="s">
         <v>335</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F315" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D315" t="s">
+      <c r="G315" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="316" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D316" t="s">
         <v>97</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E316" t="s">
         <v>97</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F316" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F316" t="s">
+      <c r="G316" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="317" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G317" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F317" t="s">
+    <row r="318" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G318" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F318" t="s">
+    <row r="319" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G319" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F319" t="s">
+    <row r="320" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G320" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E320" t="s">
+    <row r="321" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E321" t="s">
         <v>336</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F321" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F321" t="s">
+      <c r="G321" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="322" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G322" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D322" t="s">
+    <row r="323" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D323" t="s">
         <v>98</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E323" t="s">
         <v>98</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F323" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D323" t="s">
+      <c r="G323" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="324" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D324" t="s">
         <v>99</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E324" t="s">
         <v>99</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F324" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E324" t="s">
+      <c r="G324" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="325" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E325" t="s">
         <v>337</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F325" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D325" t="s">
+      <c r="G325" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="326" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D326" t="s">
         <v>100</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E326" t="s">
         <v>100</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F326" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D326" t="s">
+      <c r="G326" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="327" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D327" t="s">
         <v>101</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E327" t="s">
         <v>101</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F327" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F327" t="s">
+      <c r="G327" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="328" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G328" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E328" t="s">
+    <row r="329" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E329" t="s">
         <v>338</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F329" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D329" t="s">
+      <c r="G329" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="330" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D330" t="s">
         <v>102</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E330" t="s">
         <v>102</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F330" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F330" t="s">
+      <c r="G330" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="331" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G331" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F331" t="s">
+    <row r="332" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G332" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E332" t="s">
+    <row r="333" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F333" t="s">
         <v>339</v>
       </c>
-      <c r="F332" t="s">
+      <c r="G333" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E333" t="s">
+    <row r="334" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E334" t="s">
         <v>340</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F334" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E334" t="s">
+      <c r="G334" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="335" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E335" t="s">
         <v>341</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F335" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F335" t="s">
+      <c r="G335" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="336" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G336" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E336" t="s">
+    <row r="337" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F337" t="s">
         <v>342</v>
       </c>
-      <c r="F336" t="s">
+      <c r="G337" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F337" t="s">
+    <row r="338" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G338" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F338" t="s">
+    <row r="339" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G339" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F339" t="s">
+    <row r="340" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G340" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F340" t="s">
+    <row r="341" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G341" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D341" t="s">
+    <row r="342" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D342" t="s">
         <v>103</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E342" t="s">
         <v>103</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F342" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F342" t="s">
+      <c r="G342" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="343" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G343" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F343" t="s">
+    <row r="344" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G344" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F344" t="s">
+    <row r="345" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G345" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F345" t="s">
+    <row r="346" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G346" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F346" t="s">
+    <row r="347" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G347" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F347" t="s">
+    <row r="348" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G348" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F348" t="s">
+    <row r="349" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G349" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E349" t="s">
+    <row r="350" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F350" t="s">
         <v>343</v>
       </c>
-      <c r="F349" t="s">
+      <c r="G350" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D350" t="s">
+    <row r="351" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D351" t="s">
         <v>104</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E351" t="s">
         <v>104</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F351" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D351" t="s">
+      <c r="G351" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="352" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D352" t="s">
         <v>105</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E352" t="s">
         <v>105</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F352" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D352" t="s">
+      <c r="G352" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="353" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D353" t="s">
         <v>106</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E353" t="s">
         <v>106</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F353" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D353" t="s">
+      <c r="G353" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="354" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D354" t="s">
         <v>107</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E354" t="s">
         <v>107</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F354" t="s">
+        <v>107</v>
+      </c>
+      <c r="G354" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F354" t="s">
+    <row r="355" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G355" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F355" t="s">
+    <row r="356" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G356" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F356" t="s">
+    <row r="357" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G357" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F357" t="s">
+    <row r="358" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G358" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F358" t="s">
+    <row r="359" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G359" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F359" t="s">
+    <row r="360" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G360" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F360" t="s">
+    <row r="361" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G361" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D361" t="s">
+    <row r="362" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D362" t="s">
         <v>108</v>
       </c>
-      <c r="E361" t="s">
+      <c r="E362" t="s">
         <v>108</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F362" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F362" t="s">
+      <c r="G362" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="363" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G363" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F363" t="s">
+    <row r="364" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G364" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E364" t="s">
+    <row r="365" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F365" t="s">
         <v>344</v>
       </c>
-      <c r="F364" t="s">
+      <c r="G365" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D365" t="s">
+    <row r="366" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D366" t="s">
         <v>109</v>
       </c>
-      <c r="E365" t="s">
+      <c r="E366" t="s">
         <v>109</v>
       </c>
-      <c r="F365" t="s">
+      <c r="F366" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D366" t="s">
+      <c r="G366" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="367" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D367" t="s">
         <v>110</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E367" t="s">
         <v>110</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F367" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F367" t="s">
+      <c r="G367" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="368" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G368" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F368" t="s">
+    <row r="369" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G369" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F369" t="s">
+    <row r="370" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G370" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F370" t="s">
+    <row r="371" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G371" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F371" t="s">
+    <row r="372" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G372" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F372" t="s">
+    <row r="373" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G373" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E373" t="s">
+    <row r="374" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E374" t="s">
         <v>345</v>
       </c>
-      <c r="F373" t="s">
+      <c r="F374" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F374" t="s">
+      <c r="G374" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="375" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G375" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D375" t="s">
+    <row r="376" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D376" t="s">
         <v>111</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E376" t="s">
         <v>111</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F376" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E376" t="s">
+      <c r="G376" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="377" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E377" t="s">
         <v>346</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F377" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D377" t="s">
+      <c r="G377" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="378" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D378" t="s">
         <v>112</v>
       </c>
-      <c r="E377" t="s">
+      <c r="E378" t="s">
         <v>112</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F378" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E378" t="s">
+      <c r="G378" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="379" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E379" t="s">
         <v>347</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F379" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D379" t="s">
+      <c r="G379" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="380" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D380" t="s">
         <v>113</v>
       </c>
-      <c r="E379" t="s">
+      <c r="E380" t="s">
         <v>113</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F380" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D380" t="s">
+      <c r="G380" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="381" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D381" t="s">
         <v>114</v>
       </c>
-      <c r="E380" t="s">
+      <c r="E381" t="s">
         <v>114</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F381" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D381" t="s">
+      <c r="G381" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="382" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D382" t="s">
         <v>115</v>
       </c>
-      <c r="E381" t="s">
+      <c r="E382" t="s">
         <v>115</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F382" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D382" t="s">
+      <c r="G382" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="383" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D383" t="s">
         <v>116</v>
       </c>
-      <c r="E382" t="s">
+      <c r="E383" t="s">
         <v>116</v>
       </c>
-      <c r="F382" t="s">
+      <c r="F383" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F383" t="s">
+      <c r="G383" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="384" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G384" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D384" t="s">
+    <row r="385" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D385" t="s">
         <v>117</v>
       </c>
-      <c r="E384" t="s">
+      <c r="E385" t="s">
         <v>117</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F385" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D385" t="s">
+      <c r="G385" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="386" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D386" t="s">
         <v>118</v>
       </c>
-      <c r="E385" t="s">
+      <c r="E386" t="s">
         <v>118</v>
       </c>
-      <c r="F385" t="s">
+      <c r="F386" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E386" t="s">
+      <c r="G386" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="387" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E387" t="s">
         <v>348</v>
       </c>
-      <c r="F386" t="s">
+      <c r="F387" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D387" t="s">
+      <c r="G387" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="388" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D388" t="s">
         <v>119</v>
       </c>
-      <c r="E387" t="s">
+      <c r="E388" t="s">
         <v>119</v>
       </c>
-      <c r="F387" t="s">
+      <c r="F388" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F388" t="s">
+      <c r="G388" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="389" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G389" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F389" t="s">
+    <row r="390" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G390" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F390" t="s">
+    <row r="391" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G391" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F391" t="s">
+    <row r="392" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G392" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F392" t="s">
+    <row r="393" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G393" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F393" t="s">
+    <row r="394" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G394" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F394" t="s">
+    <row r="395" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G395" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F395" t="s">
+    <row r="396" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G396" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F396" t="s">
+    <row r="397" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G397" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F397" t="s">
+    <row r="398" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G398" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F398" t="s">
+    <row r="399" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G399" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F399" t="s">
+    <row r="400" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G400" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F400" t="s">
+    <row r="401" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G401" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F401" t="s">
+    <row r="402" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G402" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F402" t="s">
+    <row r="403" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G403" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F403" t="s">
+    <row r="404" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G404" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F404" t="s">
+    <row r="405" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G405" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F405" t="s">
+    <row r="406" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G406" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F406" t="s">
+    <row r="407" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G407" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F407" t="s">
+    <row r="408" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G408" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F408" t="s">
+    <row r="409" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G409" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F409" t="s">
+    <row r="410" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G410" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F410" t="s">
+    <row r="411" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G411" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F411" t="s">
+    <row r="412" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G412" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F412" t="s">
+    <row r="413" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G413" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F413" t="s">
+    <row r="414" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G414" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F414" t="s">
+    <row r="415" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G415" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E415" t="s">
+    <row r="416" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E416" t="s">
         <v>349</v>
       </c>
-      <c r="F415" t="s">
+      <c r="F416" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D416" t="s">
+      <c r="G416" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="417" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D417" t="s">
         <v>120</v>
       </c>
-      <c r="E416" t="s">
+      <c r="E417" t="s">
         <v>120</v>
       </c>
-      <c r="F416" t="s">
+      <c r="F417" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F417" t="s">
+      <c r="G417" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="418" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G418" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F418" t="s">
+    <row r="419" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G419" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E419" t="s">
+    <row r="420" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E420" t="s">
         <v>350</v>
       </c>
-      <c r="F419" t="s">
+      <c r="F420" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F420" t="s">
+      <c r="G420" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="421" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G421" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D421" t="s">
+    <row r="422" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D422" t="s">
         <v>121</v>
       </c>
-      <c r="E421" t="s">
+      <c r="E422" t="s">
         <v>121</v>
       </c>
-      <c r="F421" t="s">
+      <c r="F422" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F422" t="s">
+      <c r="G422" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="423" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G423" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F423" t="s">
+    <row r="424" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G424" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E424" t="s">
+    <row r="425" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E425" t="s">
         <v>351</v>
       </c>
-      <c r="F424" t="s">
+      <c r="F425" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D425" t="s">
+      <c r="G425" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="426" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D426" t="s">
         <v>122</v>
       </c>
-      <c r="E425" t="s">
+      <c r="E426" t="s">
         <v>122</v>
       </c>
-      <c r="F425" t="s">
+      <c r="F426" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E426" t="s">
+      <c r="G426" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="427" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F427" t="s">
         <v>352</v>
       </c>
-      <c r="F426" t="s">
+      <c r="G427" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D427" t="s">
+    <row r="428" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D428" t="s">
         <v>123</v>
       </c>
-      <c r="E427" t="s">
+      <c r="E428" t="s">
         <v>123</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F428" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D428" t="s">
+      <c r="G428" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="429" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D429" t="s">
         <v>124</v>
       </c>
-      <c r="E428" t="s">
+      <c r="E429" t="s">
         <v>124</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F429" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F429" t="s">
+      <c r="G429" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="430" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G430" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D430" t="s">
+    <row r="431" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D431" t="s">
         <v>125</v>
       </c>
-      <c r="E430" t="s">
+      <c r="E431" t="s">
         <v>125</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F431" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D431" t="s">
+      <c r="G431" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="432" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D432" t="s">
         <v>126</v>
       </c>
-      <c r="E431" t="s">
+      <c r="E432" t="s">
         <v>126</v>
       </c>
-      <c r="F431" t="s">
+      <c r="F432" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E432" t="s">
+      <c r="G432" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="433" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E433" t="s">
         <v>353</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F433" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F433" t="s">
+      <c r="G433" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="434" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G434" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F434" t="s">
+    <row r="435" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G435" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D435" t="s">
+    <row r="436" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D436" t="s">
         <v>127</v>
       </c>
-      <c r="E435" t="s">
+      <c r="E436" t="s">
         <v>127</v>
       </c>
-      <c r="F435" t="s">
+      <c r="F436" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F436" t="s">
+      <c r="G436" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="437" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G437" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F437" t="s">
+    <row r="438" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G438" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E438" t="s">
+    <row r="439" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E439" t="s">
         <v>354</v>
       </c>
-      <c r="F438" t="s">
+      <c r="F439" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E439" t="s">
+      <c r="G439" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="440" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E440" t="s">
         <v>355</v>
       </c>
-      <c r="F439" t="s">
+      <c r="F440" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D440" t="s">
+      <c r="G440" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="441" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D441" t="s">
         <v>128</v>
       </c>
-      <c r="E440" t="s">
+      <c r="E441" t="s">
         <v>128</v>
       </c>
-      <c r="F440" t="s">
+      <c r="F441" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E441" t="s">
+      <c r="G441" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="442" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E442" t="s">
         <v>356</v>
       </c>
-      <c r="F441" t="s">
+      <c r="F442" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D442" t="s">
+      <c r="G442" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="443" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D443" t="s">
         <v>129</v>
       </c>
-      <c r="E442" t="s">
+      <c r="E443" t="s">
         <v>129</v>
       </c>
-      <c r="F442" t="s">
+      <c r="F443" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F443" t="s">
+      <c r="G443" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="444" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G444" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E444" t="s">
+    <row r="445" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E445" t="s">
         <v>357</v>
       </c>
-      <c r="F444" t="s">
+      <c r="F445" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F445" t="s">
+      <c r="G445" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="446" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G446" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F446" t="s">
+    <row r="447" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G447" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E447" t="s">
+    <row r="448" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E448" t="s">
         <v>358</v>
       </c>
-      <c r="F447" t="s">
+      <c r="F448" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F448" t="s">
+      <c r="G448" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="449" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G449" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F449" t="s">
+    <row r="450" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G450" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F450" t="s">
+    <row r="451" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G451" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F451" t="s">
+    <row r="452" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G452" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F452" t="s">
+    <row r="453" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G453" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F453" t="s">
+    <row r="454" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G454" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E454" t="s">
+    <row r="455" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F455" t="s">
         <v>359</v>
       </c>
-      <c r="F454" t="s">
+      <c r="G455" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E455" t="s">
+    <row r="456" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E456" t="s">
         <v>360</v>
       </c>
-      <c r="F455" t="s">
+      <c r="F456" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D456" t="s">
+      <c r="G456" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="457" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D457" t="s">
         <v>130</v>
       </c>
-      <c r="E456" t="s">
+      <c r="E457" t="s">
         <v>130</v>
       </c>
-      <c r="F456" t="s">
+      <c r="F457" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D457" t="s">
+      <c r="G457" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="458" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D458" t="s">
         <v>131</v>
       </c>
-      <c r="E457" t="s">
+      <c r="E458" t="s">
         <v>131</v>
       </c>
-      <c r="F457" t="s">
+      <c r="F458" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E458" t="s">
+      <c r="G458" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="459" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E459" t="s">
         <v>361</v>
       </c>
-      <c r="F458" t="s">
+      <c r="F459" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E459" t="s">
+      <c r="G459" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="460" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E460" t="s">
         <v>362</v>
       </c>
-      <c r="F459" t="s">
+      <c r="F460" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E460" t="s">
+      <c r="G460" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="461" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E461" t="s">
         <v>363</v>
       </c>
-      <c r="F460" t="s">
+      <c r="F461" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D461" t="s">
+      <c r="G461" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="462" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D462" t="s">
         <v>132</v>
       </c>
-      <c r="E461" t="s">
+      <c r="E462" t="s">
         <v>132</v>
       </c>
-      <c r="F461" t="s">
+      <c r="F462" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D462" t="s">
+      <c r="G462" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="463" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D463" t="s">
         <v>133</v>
       </c>
-      <c r="E462" t="s">
+      <c r="E463" t="s">
         <v>133</v>
       </c>
-      <c r="F462" t="s">
+      <c r="F463" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D463" t="s">
+      <c r="G463" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="464" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D464" t="s">
         <v>134</v>
       </c>
-      <c r="E463" t="s">
+      <c r="E464" t="s">
         <v>134</v>
       </c>
-      <c r="F463" t="s">
+      <c r="F464" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F464" t="s">
+      <c r="G464" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="465" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G465" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F465" t="s">
+    <row r="466" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G466" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F466" t="s">
+    <row r="467" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G467" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F467" t="s">
+    <row r="468" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G468" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D468" t="s">
+    <row r="469" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D469" t="s">
         <v>135</v>
       </c>
-      <c r="E468" t="s">
+      <c r="E469" t="s">
         <v>135</v>
       </c>
-      <c r="F468" t="s">
+      <c r="F469" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E469" t="s">
+      <c r="G469" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="470" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E470" t="s">
         <v>364</v>
       </c>
-      <c r="F469" t="s">
+      <c r="F470" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E470" t="s">
+      <c r="G470" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="471" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E471" t="s">
         <v>365</v>
       </c>
-      <c r="F470" t="s">
+      <c r="F471" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F471" t="s">
+      <c r="G471" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="472" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G472" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F472" t="s">
+    <row r="473" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G473" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F473" t="s">
+    <row r="474" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G474" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F474" t="s">
+    <row r="475" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G475" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E475" t="s">
+    <row r="476" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F476" t="s">
         <v>366</v>
       </c>
-      <c r="F475" t="s">
+      <c r="G476" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E476" t="s">
+    <row r="477" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F477" t="s">
         <v>367</v>
       </c>
-      <c r="F476" t="s">
+      <c r="G477" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E477" t="s">
+    <row r="478" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F478" t="s">
         <v>368</v>
       </c>
-      <c r="F477" t="s">
+      <c r="G478" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F478" t="s">
+    <row r="479" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G479" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F479" t="s">
+    <row r="480" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G480" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F480" t="s">
+    <row r="481" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G481" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F481" t="s">
+    <row r="482" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G482" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F482" t="s">
+    <row r="483" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G483" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F483" t="s">
+    <row r="484" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G484" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E484" t="s">
+    <row r="485" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E485" t="s">
         <v>369</v>
       </c>
-      <c r="F484" t="s">
+      <c r="F485" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D485" t="s">
+      <c r="G485" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="486" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D486" t="s">
         <v>136</v>
       </c>
-      <c r="E485" t="s">
+      <c r="E486" t="s">
         <v>136</v>
       </c>
-      <c r="F485" t="s">
+      <c r="F486" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F486" t="s">
+      <c r="G486" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="487" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G487" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F487" t="s">
+    <row r="488" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G488" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E488" t="s">
+    <row r="489" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F489" t="s">
         <v>370</v>
       </c>
-      <c r="F488" t="s">
+      <c r="G489" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F489" t="s">
+    <row r="490" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G490" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E490" t="s">
+    <row r="491" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E491" t="s">
         <v>371</v>
       </c>
-      <c r="F490" t="s">
+      <c r="F491" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D491" t="s">
+      <c r="G491" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="492" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D492" t="s">
         <v>137</v>
       </c>
-      <c r="E491" t="s">
+      <c r="E492" t="s">
         <v>137</v>
       </c>
-      <c r="F491" t="s">
+      <c r="F492" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D492" t="s">
+      <c r="G492" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="493" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D493" t="s">
         <v>138</v>
       </c>
-      <c r="E492" t="s">
+      <c r="E493" t="s">
         <v>138</v>
       </c>
-      <c r="F492" t="s">
+      <c r="F493" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F493" t="s">
+      <c r="G493" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="494" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G494" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F494" t="s">
+    <row r="495" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G495" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E495" t="s">
+    <row r="496" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F496" t="s">
         <v>372</v>
       </c>
-      <c r="F495" t="s">
+      <c r="G496" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F496" t="s">
+    <row r="497" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G497" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F497" t="s">
+    <row r="498" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G498" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D498" t="s">
+    <row r="499" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D499" t="s">
         <v>139</v>
       </c>
-      <c r="E498" t="s">
+      <c r="E499" t="s">
         <v>139</v>
       </c>
-      <c r="F498" t="s">
+      <c r="F499" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D499" t="s">
+      <c r="G499" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="500" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D500" t="s">
         <v>140</v>
       </c>
-      <c r="E499" t="s">
+      <c r="E500" t="s">
         <v>140</v>
       </c>
-      <c r="F499" t="s">
+      <c r="F500" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D500" t="s">
+      <c r="G500" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="501" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D501" t="s">
         <v>141</v>
       </c>
-      <c r="E500" t="s">
+      <c r="E501" t="s">
         <v>141</v>
       </c>
-      <c r="F500" t="s">
+      <c r="F501" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F501" t="s">
+      <c r="G501" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="502" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G502" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F502" t="s">
+    <row r="503" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G503" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E503" t="s">
+    <row r="504" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E504" t="s">
         <v>373</v>
       </c>
-      <c r="F503" t="s">
+      <c r="F504" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F504" t="s">
+      <c r="G504" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="505" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G505" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D505" t="s">
+    <row r="506" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D506" t="s">
         <v>142</v>
       </c>
-      <c r="E505" t="s">
+      <c r="E506" t="s">
         <v>142</v>
       </c>
-      <c r="F505" t="s">
+      <c r="F506" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E506" t="s">
+      <c r="G506" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="507" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E507" t="s">
         <v>374</v>
       </c>
-      <c r="F506" t="s">
+      <c r="F507" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F507" t="s">
+      <c r="G507" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="508" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G508" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F508" t="s">
+    <row r="509" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G509" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D509" t="s">
+    <row r="510" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D510" t="s">
         <v>143</v>
       </c>
-      <c r="E509" t="s">
+      <c r="E510" t="s">
         <v>143</v>
       </c>
-      <c r="F509" t="s">
+      <c r="F510" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F510" t="s">
+      <c r="G510" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="511" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G511" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F511" t="s">
+    <row r="512" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G512" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D512" t="s">
+    <row r="513" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D513" t="s">
         <v>144</v>
       </c>
-      <c r="E512" t="s">
+      <c r="E513" t="s">
         <v>144</v>
       </c>
-      <c r="F512" t="s">
+      <c r="F513" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F513" t="s">
+      <c r="G513" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="514" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G514" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F514" t="s">
+    <row r="515" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G515" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F515" t="s">
+    <row r="516" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G516" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F516" t="s">
+    <row r="517" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G517" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F517" t="s">
+    <row r="518" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G518" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F518" t="s">
+    <row r="519" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G519" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F519" t="s">
+    <row r="520" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G520" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F520" t="s">
+    <row r="521" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G521" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F521" t="s">
+    <row r="522" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G522" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D522" t="s">
+    <row r="523" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D523" t="s">
         <v>145</v>
       </c>
-      <c r="E522" t="s">
+      <c r="E523" t="s">
         <v>145</v>
       </c>
-      <c r="F522" t="s">
+      <c r="F523" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D523" t="s">
+      <c r="G523" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="524" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D524" t="s">
         <v>146</v>
       </c>
-      <c r="E523" t="s">
+      <c r="E524" t="s">
         <v>146</v>
       </c>
-      <c r="F523" t="s">
+      <c r="F524" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D524" t="s">
+      <c r="G524" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="525" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D525" t="s">
         <v>147</v>
       </c>
-      <c r="E524" t="s">
+      <c r="E525" t="s">
         <v>147</v>
       </c>
-      <c r="F524" t="s">
+      <c r="F525" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D525" t="s">
+      <c r="G525" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="526" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D526" t="s">
         <v>148</v>
       </c>
-      <c r="E525" t="s">
+      <c r="E526" t="s">
         <v>148</v>
       </c>
-      <c r="F525" t="s">
+      <c r="F526" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="526" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E526" t="s">
+      <c r="G526" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="527" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E527" t="s">
         <v>375</v>
       </c>
-      <c r="F526" t="s">
+      <c r="F527" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="527" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F527" t="s">
+      <c r="G527" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="528" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G528" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="528" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E528" t="s">
+    <row r="529" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F529" t="s">
         <v>376</v>
       </c>
-      <c r="F528" t="s">
+      <c r="G529" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="529" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D529" t="s">
+    <row r="530" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D530" t="s">
         <v>149</v>
       </c>
-      <c r="E529" t="s">
+      <c r="E530" t="s">
         <v>149</v>
       </c>
-      <c r="F529" t="s">
+      <c r="F530" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="530" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D530" t="s">
+      <c r="G530" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="531" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D531" t="s">
         <v>150</v>
       </c>
-      <c r="E530" t="s">
+      <c r="E531" t="s">
         <v>150</v>
       </c>
-      <c r="F530" t="s">
+      <c r="F531" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="531" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D531" t="s">
+      <c r="G531" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="532" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D532" t="s">
         <v>151</v>
       </c>
-      <c r="E531" t="s">
+      <c r="E532" t="s">
         <v>151</v>
       </c>
-      <c r="F531" t="s">
+      <c r="F532" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="532" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E532" t="s">
+      <c r="G532" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="533" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E533" t="s">
         <v>377</v>
       </c>
-      <c r="F532" t="s">
+      <c r="F533" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="533" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D533" t="s">
+      <c r="G533" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="534" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D534" t="s">
         <v>152</v>
       </c>
-      <c r="E533" t="s">
+      <c r="E534" t="s">
         <v>152</v>
       </c>
-      <c r="F533" t="s">
+      <c r="F534" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="534" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D534" t="s">
+      <c r="G534" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="535" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D535" t="s">
         <v>153</v>
       </c>
-      <c r="E534" t="s">
+      <c r="E535" t="s">
         <v>153</v>
       </c>
-      <c r="F534" t="s">
+      <c r="F535" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="535" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D535" t="s">
+      <c r="G535" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="536" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D536" t="s">
         <v>154</v>
       </c>
-      <c r="E535" t="s">
+      <c r="E536" t="s">
         <v>154</v>
       </c>
-      <c r="F535" t="s">
+      <c r="F536" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="536" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D536" t="s">
+      <c r="G536" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="537" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D537" t="s">
         <v>155</v>
       </c>
-      <c r="E536" t="s">
+      <c r="E537" t="s">
         <v>155</v>
       </c>
-      <c r="F536" t="s">
+      <c r="F537" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="537" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D537" t="s">
+      <c r="G537" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="538" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D538" t="s">
         <v>156</v>
       </c>
-      <c r="E537" t="s">
+      <c r="E538" t="s">
         <v>156</v>
       </c>
-      <c r="F537" t="s">
+      <c r="F538" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="538" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D538" t="s">
+      <c r="G538" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="539" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D539" t="s">
         <v>157</v>
       </c>
-      <c r="E538" t="s">
+      <c r="E539" t="s">
         <v>157</v>
       </c>
-      <c r="F538" t="s">
+      <c r="F539" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="539" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D539" t="s">
+      <c r="G539" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="540" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D540" t="s">
         <v>158</v>
       </c>
-      <c r="E539" t="s">
+      <c r="E540" t="s">
         <v>158</v>
       </c>
-      <c r="F539" t="s">
+      <c r="F540" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="540" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F540" t="s">
+      <c r="G540" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="541" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G541" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="541" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F541" t="s">
+    <row r="542" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G542" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="542" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E542" t="s">
+    <row r="543" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E543" t="s">
         <v>378</v>
       </c>
-      <c r="F542" t="s">
+      <c r="F543" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="543" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D543" t="s">
+      <c r="G543" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="544" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D544" t="s">
         <v>159</v>
       </c>
-      <c r="E543" t="s">
+      <c r="E544" t="s">
         <v>159</v>
       </c>
-      <c r="F543" t="s">
+      <c r="F544" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="544" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D544" t="s">
+      <c r="G544" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="545" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D545" t="s">
         <v>160</v>
       </c>
-      <c r="E544" t="s">
+      <c r="E545" t="s">
         <v>160</v>
       </c>
-      <c r="F544" t="s">
+      <c r="F545" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D545" t="s">
+      <c r="G545" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="546" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D546" t="s">
         <v>161</v>
       </c>
-      <c r="E545" t="s">
+      <c r="E546" t="s">
         <v>161</v>
       </c>
-      <c r="F545" t="s">
+      <c r="F546" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="546" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F546" t="s">
+      <c r="G546" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="547" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G547" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="547" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F547" t="s">
+    <row r="548" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G548" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="548" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D548" t="s">
+    <row r="549" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D549" t="s">
         <v>162</v>
       </c>
-      <c r="E548" t="s">
+      <c r="E549" t="s">
         <v>162</v>
       </c>
-      <c r="F548" t="s">
+      <c r="F549" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D549" t="s">
+      <c r="G549" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="550" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D550" t="s">
         <v>163</v>
       </c>
-      <c r="E549" t="s">
+      <c r="E550" t="s">
         <v>163</v>
       </c>
-      <c r="F549" t="s">
+      <c r="F550" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="550" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F550" t="s">
+      <c r="G550" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="551" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G551" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E551" t="s">
+    <row r="552" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E552" t="s">
         <v>379</v>
       </c>
-      <c r="F551" t="s">
+      <c r="F552" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="552" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E552" t="s">
+      <c r="G552" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="553" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E553" t="s">
         <v>380</v>
       </c>
-      <c r="F552" t="s">
+      <c r="F553" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D553" t="s">
+      <c r="G553" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="554" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D554" t="s">
         <v>164</v>
       </c>
-      <c r="E553" t="s">
+      <c r="E554" t="s">
         <v>164</v>
       </c>
-      <c r="F553" t="s">
+      <c r="F554" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E554" t="s">
+      <c r="G554" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="555" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E555" t="s">
         <v>381</v>
       </c>
-      <c r="F554" t="s">
+      <c r="F555" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="555" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D555" t="s">
+      <c r="G555" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="556" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D556" t="s">
         <v>165</v>
       </c>
-      <c r="E555" t="s">
+      <c r="E556" t="s">
         <v>165</v>
       </c>
-      <c r="F555" t="s">
+      <c r="F556" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D556" t="s">
+      <c r="G556" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="557" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D557" t="s">
         <v>166</v>
       </c>
-      <c r="E556" t="s">
+      <c r="E557" t="s">
         <v>166</v>
       </c>
-      <c r="F556" t="s">
+      <c r="F557" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="557" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D557" t="s">
+      <c r="G557" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="558" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D558" t="s">
         <v>167</v>
       </c>
-      <c r="E557" t="s">
+      <c r="E558" t="s">
         <v>167</v>
       </c>
-      <c r="F557" t="s">
+      <c r="F558" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="558" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D558" t="s">
+      <c r="G558" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="559" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D559" t="s">
         <v>168</v>
       </c>
-      <c r="E558" t="s">
+      <c r="E559" t="s">
         <v>168</v>
       </c>
-      <c r="F558" t="s">
+      <c r="F559" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D559" t="s">
+      <c r="G559" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="560" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D560" t="s">
         <v>169</v>
       </c>
-      <c r="E559" t="s">
+      <c r="E560" t="s">
         <v>169</v>
       </c>
-      <c r="F559" t="s">
+      <c r="F560" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="560" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D560" t="s">
+      <c r="G560" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="561" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D561" t="s">
         <v>170</v>
       </c>
-      <c r="E560" t="s">
+      <c r="E561" t="s">
         <v>170</v>
       </c>
-      <c r="F560" t="s">
+      <c r="F561" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="561" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F561" t="s">
+      <c r="G561" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="562" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G562" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="562" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D562" t="s">
+    <row r="563" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D563" t="s">
         <v>171</v>
       </c>
-      <c r="E562" t="s">
+      <c r="E563" t="s">
         <v>171</v>
       </c>
-      <c r="F562" t="s">
+      <c r="F563" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="563" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D563" t="s">
+      <c r="G563" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="564" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D564" t="s">
         <v>172</v>
       </c>
-      <c r="E563" t="s">
+      <c r="E564" t="s">
         <v>172</v>
       </c>
-      <c r="F563" t="s">
+      <c r="F564" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="564" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D564" t="s">
+      <c r="G564" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="565" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D565" t="s">
         <v>173</v>
       </c>
-      <c r="E564" t="s">
+      <c r="E565" t="s">
         <v>173</v>
       </c>
-      <c r="F564" t="s">
+      <c r="F565" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="565" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D565" t="s">
+      <c r="G565" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="566" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D566" t="s">
         <v>174</v>
       </c>
-      <c r="E565" t="s">
+      <c r="E566" t="s">
         <v>174</v>
       </c>
-      <c r="F565" t="s">
+      <c r="F566" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="566" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D566" t="s">
+      <c r="G566" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="567" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D567" t="s">
         <v>175</v>
       </c>
-      <c r="E566" t="s">
+      <c r="E567" t="s">
         <v>175</v>
       </c>
-      <c r="F566" t="s">
+      <c r="F567" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="567" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D567" t="s">
+      <c r="G567" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="568" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D568" t="s">
         <v>176</v>
       </c>
-      <c r="E567" t="s">
+      <c r="E568" t="s">
         <v>176</v>
       </c>
-      <c r="F567" t="s">
+      <c r="F568" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="568" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D568" t="s">
+      <c r="G568" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="569" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D569" t="s">
         <v>177</v>
       </c>
-      <c r="E568" t="s">
+      <c r="E569" t="s">
         <v>177</v>
       </c>
-      <c r="F568" t="s">
+      <c r="F569" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="569" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D569" t="s">
+      <c r="G569" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="570" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D570" t="s">
         <v>178</v>
       </c>
-      <c r="E569" t="s">
+      <c r="E570" t="s">
         <v>178</v>
       </c>
-      <c r="F569" t="s">
+      <c r="F570" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="570" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D570" t="s">
+      <c r="G570" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="571" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D571" t="s">
         <v>179</v>
       </c>
-      <c r="E570" t="s">
+      <c r="E571" t="s">
         <v>179</v>
       </c>
-      <c r="F570" t="s">
+      <c r="F571" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="571" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D571" t="s">
+      <c r="G571" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="572" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D572" t="s">
         <v>180</v>
       </c>
-      <c r="E571" t="s">
+      <c r="E572" t="s">
         <v>180</v>
       </c>
-      <c r="F571" t="s">
+      <c r="F572" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="572" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F572" t="s">
+      <c r="G572" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="573" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G573" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="573" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F573" t="s">
+    <row r="574" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G574" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="574" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F574" t="s">
+    <row r="575" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G575" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="575" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F575" t="s">
+    <row r="576" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G576" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="576" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F576" t="s">
+    <row r="577" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G577" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="577" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F577" t="s">
+    <row r="578" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G578" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="578" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F578" t="s">
+    <row r="579" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G579" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="579" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F579" t="s">
+    <row r="580" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G580" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F580" t="s">
+    <row r="581" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G581" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F581" t="s">
+    <row r="582" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G582" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F582" t="s">
+    <row r="583" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G583" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F583" t="s">
+    <row r="584" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G584" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F584" t="s">
+    <row r="585" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G585" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F585" t="s">
+    <row r="586" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G586" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F586" t="s">
+    <row r="587" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G587" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F587" t="s">
+    <row r="588" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G588" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F588" t="s">
+    <row r="589" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G589" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F589" t="s">
+    <row r="590" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G590" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F590" t="s">
+    <row r="591" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G591" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F591" t="s">
+    <row r="592" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G592" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F592" t="s">
+    <row r="593" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G593" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="593" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F593" t="s">
+    <row r="594" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G594" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="594" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F594" t="s">
+    <row r="595" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G595" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="595" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F595" t="s">
+    <row r="596" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G596" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="596" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F596" t="s">
+    <row r="597" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G597" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="597" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F597" t="s">
+    <row r="598" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G598" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="598" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D598" t="s">
+    <row r="599" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D599" t="s">
         <v>181</v>
       </c>
-      <c r="E598" t="s">
+      <c r="E599" t="s">
         <v>181</v>
       </c>
-      <c r="F598" t="s">
+      <c r="F599" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="599" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E599" t="s">
+      <c r="G599" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="600" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E600" t="s">
         <v>382</v>
       </c>
-      <c r="F599" t="s">
+      <c r="F600" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="600" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D600" t="s">
+      <c r="G600" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="601" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D601" t="s">
         <v>182</v>
       </c>
-      <c r="E600" t="s">
+      <c r="E601" t="s">
         <v>182</v>
       </c>
-      <c r="F600" t="s">
+      <c r="F601" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="601" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D601" t="s">
+      <c r="G601" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="602" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D602" t="s">
         <v>183</v>
       </c>
-      <c r="E601" t="s">
+      <c r="E602" t="s">
         <v>183</v>
       </c>
-      <c r="F601" t="s">
+      <c r="F602" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="602" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D602" t="s">
+      <c r="G602" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="603" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D603" t="s">
         <v>184</v>
       </c>
-      <c r="E602" t="s">
+      <c r="E603" t="s">
         <v>184</v>
       </c>
-      <c r="F602" t="s">
+      <c r="F603" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="603" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F603" t="s">
+      <c r="G603" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="604" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G604" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="604" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E604" t="s">
+    <row r="605" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E605" t="s">
         <v>383</v>
       </c>
-      <c r="F604" t="s">
+      <c r="F605" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="605" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E605" t="s">
+      <c r="G605" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="606" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E606" t="s">
         <v>384</v>
       </c>
-      <c r="F605" t="s">
+      <c r="F606" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="606" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D606" t="s">
+      <c r="G606" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="607" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D607" t="s">
         <v>185</v>
       </c>
-      <c r="E606" t="s">
+      <c r="E607" t="s">
         <v>185</v>
       </c>
-      <c r="F606" t="s">
+      <c r="F607" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="607" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D607" t="s">
+      <c r="G607" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="608" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D608" t="s">
         <v>186</v>
       </c>
-      <c r="E607" t="s">
+      <c r="E608" t="s">
         <v>186</v>
       </c>
-      <c r="F607" t="s">
+      <c r="F608" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="608" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F608" t="s">
+      <c r="G608" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="609" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G609" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="609" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F609" t="s">
+    <row r="610" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G610" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="610" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D610" t="s">
+    <row r="611" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D611" t="s">
         <v>187</v>
       </c>
-      <c r="E610" t="s">
+      <c r="E611" t="s">
         <v>187</v>
       </c>
-      <c r="F610" t="s">
+      <c r="F611" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="611" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E611" t="s">
+      <c r="G611" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="612" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E612" t="s">
         <v>385</v>
       </c>
-      <c r="F611" t="s">
+      <c r="F612" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="612" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F612" t="s">
+      <c r="G612" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="613" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G613" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="613" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F613" t="s">
+    <row r="614" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G614" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="614" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F614" t="s">
+    <row r="615" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G615" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="615" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F615" t="s">
+    <row r="616" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G616" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="616" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E616" t="s">
+    <row r="617" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F617" t="s">
         <v>386</v>
       </c>
-      <c r="F616" t="s">
+      <c r="G617" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="617" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F617" t="s">
+    <row r="618" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G618" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="618" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F618" t="s">
+    <row r="619" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G619" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="619" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D619" t="s">
+    <row r="620" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D620" t="s">
         <v>188</v>
       </c>
-      <c r="E619" t="s">
+      <c r="E620" t="s">
         <v>188</v>
       </c>
-      <c r="F619" t="s">
+      <c r="F620" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="620" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D620" t="s">
+      <c r="G620" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="621" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D621" t="s">
         <v>189</v>
       </c>
-      <c r="E620" t="s">
+      <c r="E621" t="s">
         <v>189</v>
       </c>
-      <c r="F620" t="s">
+      <c r="F621" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="621" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D621" t="s">
+      <c r="G621" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="622" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D622" t="s">
         <v>190</v>
       </c>
-      <c r="E621" t="s">
+      <c r="E622" t="s">
         <v>190</v>
       </c>
-      <c r="F621" t="s">
+      <c r="F622" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="622" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D622" t="s">
+      <c r="G622" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="623" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D623" t="s">
         <v>191</v>
       </c>
-      <c r="E622" t="s">
+      <c r="E623" t="s">
         <v>191</v>
       </c>
-      <c r="F622" t="s">
+      <c r="F623" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="623" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D623" t="s">
+      <c r="G623" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="624" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D624" t="s">
         <v>192</v>
       </c>
-      <c r="E623" t="s">
+      <c r="E624" t="s">
         <v>192</v>
       </c>
-      <c r="F623" t="s">
+      <c r="F624" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="624" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D624" t="s">
+      <c r="G624" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="625" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D625" t="s">
         <v>193</v>
       </c>
-      <c r="E624" t="s">
+      <c r="E625" t="s">
         <v>193</v>
       </c>
-      <c r="F624" t="s">
+      <c r="F625" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="625" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F625" t="s">
+      <c r="G625" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="626" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G626" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="626" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F626" t="s">
+    <row r="627" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G627" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="627" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E627" t="s">
+    <row r="628" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F628" t="s">
         <v>387</v>
       </c>
-      <c r="F627" t="s">
+      <c r="G628" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="628" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F628" t="s">
+    <row r="629" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G629" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="629" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E629" t="s">
+    <row r="630" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F630" t="s">
         <v>388</v>
       </c>
-      <c r="F629" t="s">
+      <c r="G630" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="630" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F630" t="s">
+    <row r="631" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G631" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="631" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F631" t="s">
+    <row r="632" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G632" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="632" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D632" t="s">
+    <row r="633" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D633" t="s">
         <v>194</v>
       </c>
-      <c r="E632" t="s">
+      <c r="E633" t="s">
         <v>194</v>
       </c>
-      <c r="F632" t="s">
+      <c r="F633" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="633" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D633" t="s">
+      <c r="G633" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="634" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D634" t="s">
         <v>195</v>
       </c>
-      <c r="E633" t="s">
+      <c r="E634" t="s">
         <v>195</v>
       </c>
-      <c r="F633" t="s">
+      <c r="F634" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="634" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D634" t="s">
+      <c r="G634" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="635" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D635" t="s">
         <v>196</v>
       </c>
-      <c r="E634" t="s">
+      <c r="E635" t="s">
         <v>196</v>
       </c>
-      <c r="F634" t="s">
+      <c r="F635" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="635" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E635" t="s">
+      <c r="G635" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="636" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E636" t="s">
         <v>389</v>
       </c>
-      <c r="F635" t="s">
+      <c r="F636" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="636" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F636" t="s">
+      <c r="G636" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="637" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G637" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="637" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F637" t="s">
+    <row r="638" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G638" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="638" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F638" t="s">
+    <row r="639" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G639" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="639" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F639" t="s">
+    <row r="640" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G640" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="640" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D640" t="s">
+    <row r="641" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D641" t="s">
         <v>197</v>
       </c>
-      <c r="E640" t="s">
+      <c r="E641" t="s">
         <v>197</v>
       </c>
-      <c r="F640" t="s">
+      <c r="F641" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F641" t="s">
+      <c r="G641" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="642" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G642" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E642" t="s">
+    <row r="643" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E643" t="s">
         <v>390</v>
       </c>
-      <c r="F642" t="s">
+      <c r="F643" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D643" t="s">
+      <c r="G643" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="644" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D644" t="s">
         <v>198</v>
       </c>
-      <c r="E643" t="s">
+      <c r="E644" t="s">
         <v>198</v>
       </c>
-      <c r="F643" t="s">
+      <c r="F644" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F644" t="s">
+      <c r="G644" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="645" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G645" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D645" t="s">
+    <row r="646" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D646" t="s">
         <v>199</v>
       </c>
-      <c r="E645" t="s">
+      <c r="E646" t="s">
         <v>199</v>
       </c>
-      <c r="F645" t="s">
+      <c r="F646" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D646" t="s">
+      <c r="G646" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="647" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D647" t="s">
         <v>200</v>
       </c>
-      <c r="E646" t="s">
+      <c r="E647" t="s">
         <v>200</v>
       </c>
-      <c r="F646" t="s">
+      <c r="F647" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D647" t="s">
+      <c r="G647" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="648" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D648" t="s">
         <v>201</v>
       </c>
-      <c r="E647" t="s">
+      <c r="E648" t="s">
         <v>201</v>
       </c>
-      <c r="F647" t="s">
+      <c r="F648" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D648" t="s">
+      <c r="G648" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="649" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D649" t="s">
         <v>202</v>
       </c>
-      <c r="E648" t="s">
+      <c r="E649" t="s">
         <v>202</v>
       </c>
-      <c r="F648" t="s">
+      <c r="F649" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E649" t="s">
+      <c r="G649" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="650" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E650" t="s">
         <v>391</v>
       </c>
-      <c r="F649" t="s">
+      <c r="F650" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F650" t="s">
+      <c r="G650" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="651" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G651" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D651" t="s">
+    <row r="652" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D652" t="s">
         <v>203</v>
       </c>
-      <c r="E651" t="s">
+      <c r="E652" t="s">
         <v>203</v>
       </c>
-      <c r="F651" t="s">
+      <c r="F652" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F652" t="s">
+      <c r="G652" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="653" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G653" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F653" t="s">
+    <row r="654" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G654" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F654" t="s">
+    <row r="655" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G655" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E655" t="s">
+    <row r="656" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E656" t="s">
         <v>392</v>
       </c>
-      <c r="F655" t="s">
+      <c r="F656" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E656" t="s">
+      <c r="G656" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="657" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E657" t="s">
         <v>393</v>
       </c>
-      <c r="F656" t="s">
+      <c r="F657" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="657" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D657" t="s">
+      <c r="G657" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="658" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D658" t="s">
         <v>204</v>
       </c>
-      <c r="E657" t="s">
+      <c r="E658" t="s">
         <v>204</v>
       </c>
-      <c r="F657" t="s">
+      <c r="F658" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="658" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E658" t="s">
+      <c r="G658" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="659" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E659" t="s">
         <v>394</v>
       </c>
-      <c r="F658" t="s">
+      <c r="F659" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="659" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F659" t="s">
+      <c r="G659" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="660" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G660" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="660" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F660" t="s">
+    <row r="661" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G661" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="661" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F661" t="s">
+    <row r="662" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G662" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="662" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E662" t="s">
+    <row r="663" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E663" t="s">
         <v>395</v>
       </c>
-      <c r="F662" t="s">
+      <c r="F663" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="663" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E663" t="s">
+      <c r="G663" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="664" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E664" t="s">
         <v>396</v>
       </c>
-      <c r="F663" t="s">
+      <c r="F664" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="664" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F664" t="s">
+      <c r="G664" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="665" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G665" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="665" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F665" t="s">
+    <row r="666" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G666" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="666" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E666" t="s">
+    <row r="667" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E667" t="s">
         <v>397</v>
       </c>
-      <c r="F666" t="s">
+      <c r="F667" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="667" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D667" t="s">
+      <c r="G667" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="668" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D668" t="s">
         <v>205</v>
       </c>
-      <c r="E667" t="s">
+      <c r="E668" t="s">
         <v>205</v>
       </c>
-      <c r="F667" t="s">
+      <c r="F668" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="668" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F668" t="s">
+      <c r="G668" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="669" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G669" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="669" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D669" t="s">
+    <row r="670" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D670" t="s">
         <v>206</v>
       </c>
-      <c r="E669" t="s">
+      <c r="E670" t="s">
         <v>206</v>
       </c>
-      <c r="F669" t="s">
+      <c r="F670" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="670" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E670" t="s">
+      <c r="G670" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="671" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E671" t="s">
         <v>398</v>
       </c>
-      <c r="F670" t="s">
+      <c r="F671" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="671" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D671" t="s">
+      <c r="G671" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="672" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D672" t="s">
         <v>207</v>
       </c>
-      <c r="E671" t="s">
+      <c r="E672" t="s">
         <v>207</v>
       </c>
-      <c r="F671" t="s">
+      <c r="F672" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="672" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F672" t="s">
+      <c r="G672" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="673" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G673" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D673" t="s">
+    <row r="674" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D674" t="s">
         <v>208</v>
       </c>
-      <c r="E673" t="s">
+      <c r="E674" t="s">
         <v>208</v>
       </c>
-      <c r="F673" t="s">
+      <c r="F674" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D674" t="s">
+      <c r="G674" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="675" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D675" t="s">
         <v>209</v>
       </c>
-      <c r="E674" t="s">
+      <c r="E675" t="s">
         <v>209</v>
       </c>
-      <c r="F674" t="s">
+      <c r="F675" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D675" t="s">
+      <c r="G675" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="676" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D676" t="s">
         <v>210</v>
       </c>
-      <c r="E675" t="s">
+      <c r="E676" t="s">
         <v>210</v>
       </c>
-      <c r="F675" t="s">
+      <c r="F676" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E676" t="s">
+      <c r="G676" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="677" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E677" t="s">
         <v>399</v>
       </c>
-      <c r="F676" t="s">
+      <c r="F677" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D677" t="s">
+      <c r="G677" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="678" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D678" t="s">
         <v>211</v>
       </c>
-      <c r="E677" t="s">
+      <c r="E678" t="s">
         <v>211</v>
       </c>
-      <c r="F677" t="s">
+      <c r="F678" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D678" t="s">
+      <c r="G678" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="679" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D679" t="s">
         <v>212</v>
       </c>
-      <c r="E678" t="s">
+      <c r="E679" t="s">
         <v>212</v>
       </c>
-      <c r="F678" t="s">
+      <c r="F679" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D679" t="s">
+      <c r="G679" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="680" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D680" t="s">
         <v>213</v>
       </c>
-      <c r="E679" t="s">
+      <c r="E680" t="s">
         <v>213</v>
       </c>
-      <c r="F679" t="s">
+      <c r="F680" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D680" t="s">
+      <c r="G680" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="681" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D681" t="s">
         <v>214</v>
       </c>
-      <c r="E680" t="s">
+      <c r="E681" t="s">
         <v>214</v>
       </c>
-      <c r="F680" t="s">
+      <c r="F681" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E681" t="s">
+      <c r="G681" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="682" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E682" t="s">
         <v>400</v>
       </c>
-      <c r="F681" t="s">
+      <c r="F682" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E682" t="s">
+      <c r="G682" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="683" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E683" t="s">
         <v>401</v>
       </c>
-      <c r="F682" t="s">
+      <c r="F683" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F683" t="s">
+      <c r="G683" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="684" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G684" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F684" t="s">
+    <row r="685" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G685" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F685" t="s">
+    <row r="686" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G686" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E686" t="s">
+    <row r="687" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E687" t="s">
         <v>402</v>
       </c>
-      <c r="F686" t="s">
+      <c r="F687" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E687" t="s">
+      <c r="G687" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="688" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E688" t="s">
         <v>403</v>
       </c>
-      <c r="F687" t="s">
+      <c r="F688" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F688" t="s">
+      <c r="G688" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="689" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G689" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="689" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D689" t="s">
+    <row r="690" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D690" t="s">
         <v>215</v>
       </c>
-      <c r="E689" t="s">
+      <c r="E690" t="s">
         <v>215</v>
       </c>
-      <c r="F689" t="s">
+      <c r="F690" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="690" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F690" t="s">
+      <c r="G690" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="691" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G691" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="691" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F691" t="s">
+    <row r="692" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G692" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="692" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F692" t="s">
+    <row r="693" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G693" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="693" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F693" t="s">
+    <row r="694" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G694" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="694" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F694" t="s">
+    <row r="695" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G695" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="695" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F695" t="s">
+    <row r="696" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G696" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="696" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E696" t="s">
+    <row r="697" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E697" t="s">
         <v>404</v>
       </c>
-      <c r="F696" t="s">
+      <c r="F697" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="697" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E697" t="s">
+      <c r="G697" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="698" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E698" t="s">
         <v>405</v>
       </c>
-      <c r="F697" t="s">
+      <c r="F698" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="698" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E698" t="s">
+      <c r="G698" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="699" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E699" t="s">
         <v>406</v>
       </c>
-      <c r="F698" t="s">
+      <c r="F699" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="699" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F699" t="s">
+      <c r="G699" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="700" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G700" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="700" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E700" t="s">
+    <row r="701" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E701" t="s">
         <v>407</v>
       </c>
-      <c r="F700" t="s">
+      <c r="F701" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="701" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E701" t="s">
+      <c r="G701" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="702" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F702" t="s">
         <v>408</v>
       </c>
-      <c r="F701" t="s">
+      <c r="G702" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="702" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E702" t="s">
+    <row r="703" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F703" t="s">
         <v>409</v>
       </c>
-      <c r="F702" t="s">
+      <c r="G703" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="703" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F703" t="s">
+    <row r="704" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G704" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="704" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E704" t="s">
+    <row r="705" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E705" t="s">
         <v>410</v>
       </c>
-      <c r="F704" t="s">
+      <c r="F705" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="705" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E705" t="s">
+      <c r="G705" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="706" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F706" t="s">
         <v>411</v>
       </c>
-      <c r="F705" t="s">
+      <c r="G706" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="706" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E706" t="s">
+    <row r="707" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F707" t="s">
         <v>412</v>
       </c>
-      <c r="F706" t="s">
+      <c r="G707" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="707" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E707" t="s">
+    <row r="708" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F708" t="s">
         <v>413</v>
       </c>
-      <c r="F707" t="s">
+      <c r="G708" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="708" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E708" t="s">
+    <row r="709" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F709" t="s">
         <v>414</v>
       </c>
-      <c r="F708" t="s">
+      <c r="G709" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="709" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E709" t="s">
+    <row r="710" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E710" t="s">
         <v>415</v>
       </c>
-      <c r="F709" t="s">
+      <c r="F710" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="710" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F710" t="s">
+      <c r="G710" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="711" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G711" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="711" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E711" t="s">
+    <row r="712" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F712" t="s">
         <v>416</v>
       </c>
-      <c r="F711" t="s">
+      <c r="G712" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="712" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D712" t="s">
+    <row r="713" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D713" t="s">
         <v>216</v>
       </c>
-      <c r="E712" t="s">
+      <c r="E713" t="s">
         <v>216</v>
       </c>
-      <c r="F712" t="s">
+      <c r="F713" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="713" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E713" t="s">
+      <c r="G713" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="714" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E714" t="s">
         <v>417</v>
       </c>
-      <c r="F713" t="s">
+      <c r="F714" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="714" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F714" t="s">
+      <c r="G714" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="715" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G715" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="715" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F715" t="s">
+    <row r="716" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G716" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D716" t="s">
+    <row r="717" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D717" t="s">
         <v>217</v>
       </c>
-      <c r="E716" t="s">
+      <c r="E717" t="s">
         <v>217</v>
       </c>
-      <c r="F716" t="s">
+      <c r="F717" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="717" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D717" t="s">
+      <c r="G717" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="718" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D718" t="s">
         <v>218</v>
       </c>
-      <c r="E717" t="s">
+      <c r="E718" t="s">
         <v>218</v>
       </c>
-      <c r="F717" t="s">
+      <c r="F718" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="718" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F718" t="s">
+      <c r="G718" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="719" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G719" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="719" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F719" t="s">
+    <row r="720" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G720" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="720" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D720" t="s">
+    <row r="721" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D721" t="s">
         <v>219</v>
       </c>
-      <c r="E720" t="s">
+      <c r="E721" t="s">
         <v>219</v>
       </c>
-      <c r="F720" t="s">
+      <c r="F721" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="721" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D721" t="s">
+      <c r="G721" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="722" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D722" t="s">
         <v>220</v>
       </c>
-      <c r="E721" t="s">
+      <c r="E722" t="s">
         <v>220</v>
       </c>
-      <c r="F721" t="s">
+      <c r="F722" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="722" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D722" t="s">
+      <c r="G722" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="723" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D723" t="s">
         <v>221</v>
       </c>
-      <c r="E722" t="s">
+      <c r="E723" t="s">
         <v>221</v>
       </c>
-      <c r="F722" t="s">
+      <c r="F723" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="723" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D723" t="s">
+      <c r="G723" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="724" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D724" t="s">
         <v>222</v>
       </c>
-      <c r="E723" t="s">
+      <c r="E724" t="s">
         <v>222</v>
       </c>
-      <c r="F723" t="s">
+      <c r="F724" t="s">
+        <v>222</v>
+      </c>
+      <c r="G724" t="s">
         <v>222</v>
       </c>
     </row>

--- a/images.xlsx
+++ b/images.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="am3358-evm" sheetId="1" r:id="rId1"/>
+    <sheet name="misc" sheetId="3" r:id="rId2"/>
+    <sheet name="tisdk-base-image" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'am3358-evm'!$B$6:$G$726</definedName>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="732">
   <si>
     <t>acl</t>
   </si>
@@ -2215,6 +2217,18 @@
   </si>
   <si>
     <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACHINE=am335x-evm bitbake -c cleansstate virtual/bootloader virtual/kernel tisdk-uenv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACHINE=am335x-evm bitbake tisdk-base-image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACHINE=am335x-evm bitbake -c cleansstate tisdk-base-image</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2238,7 +2252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2248,6 +2262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,7 +2299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2296,6 +2316,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2603,10 +2625,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B6:G726"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12630,4 +12652,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F7" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/images.xlsx
+++ b/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="am3358-evm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="756">
   <si>
     <t>acl</t>
   </si>
@@ -2314,6 +2314,53 @@
   </si>
   <si>
     <t>pjname 378</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://software-dl.ti.com/processor-sdk-linux/esd/AM335X/09_03_05_02/exports/docs/linux/Overview/Processor_SDK_Linux_create_SD_card.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flash WIC image to SD Card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo umount /media/fsd/root</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo umount /media/fsd/boot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unxz unxz tisdk-base-image-pjname.wic.xz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bmaptool create -o image.bmap tisdk-base-image-pjname.wic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo bmaptool copy --bmap image.bmap tisdk-base-image-pjname.wic /dev/sdb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAN_DEBUG = "${@bb.warn('Debugging: %s' % d.getVar('IMAGE_INSTALL'))}"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export ${PAN_DEBUG}</t>
+  </si>
+  <si>
+    <t>cd build</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>. conf/setenv</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2719,7 +2766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H726"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
@@ -14223,10 +14270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C15"/>
+  <dimension ref="C5:C48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14247,6 +14294,67 @@
       </c>
     </row>
     <row r="15" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>753</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14257,7 +14365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C11:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>

--- a/images.xlsx
+++ b/images.xlsx
@@ -10,7 +10,6 @@
     <sheet name="am3358-evm" sheetId="1" r:id="rId1"/>
     <sheet name="misc" sheetId="3" r:id="rId2"/>
     <sheet name="meta-pjname" sheetId="4" r:id="rId3"/>
-    <sheet name="tisdk-base-image" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'am3358-evm'!$B$6:$H$726</definedName>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="761">
   <si>
     <t>acl</t>
   </si>
@@ -2361,6 +2360,22 @@
   </si>
   <si>
     <t>. conf/setenv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rdepends_value = d.getVar("RDEPENDS:%s" % d.getVar("PN"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bb.warn("Value of RDEPENDS:${PN}: [%s]" % rdepends_value)</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>MACHINE=am335x-evm oe-pkgdata-util read-value RDEPENDS packagegroup-core-boot</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2439,7 +2454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2453,7 +2468,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2777,7 +2791,7 @@
     <col min="2" max="2" width="8.25" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="6" width="31.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="35.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2791,10 +2805,10 @@
       <c r="D6" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>742</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -14270,10 +14284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C48"/>
+  <dimension ref="C5:C57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14293,7 +14307,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="15" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="3:3" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>744</v>
@@ -14334,7 +14348,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="38" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:3" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>754</v>
@@ -14355,9 +14369,35 @@
         <v>753</v>
       </c>
     </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>760</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14391,7 +14431,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="25" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="3:6" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>735</v>
@@ -14401,10 +14441,10 @@
       <c r="C31" t="s">
         <v>737</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>738</v>
       </c>
     </row>
@@ -14424,29 +14464,9 @@
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>736</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="7" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F7" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/images.xlsx
+++ b/images.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="am3358-evm" sheetId="1" r:id="rId1"/>
-    <sheet name="misc" sheetId="3" r:id="rId2"/>
-    <sheet name="meta-pjname" sheetId="4" r:id="rId3"/>
+    <sheet name="VM" sheetId="6" r:id="rId1"/>
+    <sheet name="Yocto" sheetId="7" r:id="rId2"/>
+    <sheet name="TISDK" sheetId="8" r:id="rId3"/>
+    <sheet name="am3358-evm" sheetId="1" r:id="rId4"/>
+    <sheet name="misc" sheetId="3" r:id="rId5"/>
+    <sheet name="meta-pjname" sheetId="4" r:id="rId6"/>
+    <sheet name="IMAGE_INSTALL" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'am3358-evm'!$B$6:$H$726</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'am3358-evm'!$B$6:$H$726</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="909">
   <si>
     <t>acl</t>
   </si>
@@ -2376,6 +2380,696 @@
   </si>
   <si>
     <t>MACHINE=am335x-evm oe-pkgdata-util read-value RDEPENDS packagegroup-core-boot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMAGE_INSTALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>packagegroup-arago-base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>packagegroup-arago-console</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>packagegroup-core-boot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    rdepends_value = d.getVar("packagegroup-core-boot")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bb.warn("Value : [%s]" % rdepends_value)</t>
+  </si>
+  <si>
+    <t>// package name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>packagegroup-core-boot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACHINE=pjname oe-pkgdata-util read-value RDEPENDS packagegroup-core-boot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base-files</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base-passwd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>busybox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow-base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>udev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDEPENDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDEPENDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>iptable</t>
+  </si>
+  <si>
+    <t>kms++-python</t>
+  </si>
+  <si>
+    <t>libasound</t>
+  </si>
+  <si>
+    <t>libdrm-dev</t>
+  </si>
+  <si>
+    <t>libgpiod-tools</t>
+  </si>
+  <si>
+    <t>module-init-tools</t>
+  </si>
+  <si>
+    <t>mtd-utils-ubifs</t>
+  </si>
+  <si>
+    <t>nfs-utils-client</t>
+  </si>
+  <si>
+    <t>openssh-sftp-server</t>
+  </si>
+  <si>
+    <t>packagegroup-base-zeroconf</t>
+  </si>
+  <si>
+    <t>parted phytool</t>
+  </si>
+  <si>
+    <t>alsa-conf</t>
+  </si>
+  <si>
+    <t>alsa-conf-base</t>
+  </si>
+  <si>
+    <t>alsa-server</t>
+  </si>
+  <si>
+    <t>alsa-utils-aconnect</t>
+  </si>
+  <si>
+    <t>alsa-utils-alsactl</t>
+  </si>
+  <si>
+    <t>alsa-utils-alsamixer</t>
+  </si>
+  <si>
+    <t>alsa-utils-amixer</t>
+  </si>
+  <si>
+    <t>alsa-utils-iecset</t>
+  </si>
+  <si>
+    <t>alsa-utils-midi</t>
+  </si>
+  <si>
+    <t>alsa-utils-speakertest</t>
+  </si>
+  <si>
+    <t>avahi-utils</t>
+  </si>
+  <si>
+    <t>e2fsprogs-e2fsck</t>
+  </si>
+  <si>
+    <t>e2fsprogs-mke2fs</t>
+  </si>
+  <si>
+    <t>e2fsprogs-tune2fs</t>
+  </si>
+  <si>
+    <t>jpeg</t>
+  </si>
+  <si>
+    <t>jpeg-tools</t>
+  </si>
+  <si>
+    <t>ncurses-terminfo</t>
+  </si>
+  <si>
+    <t>ncurses-tools</t>
+  </si>
+  <si>
+    <t>util-linux-fdisk</t>
+  </si>
+  <si>
+    <t>util-linux-fsck</t>
+  </si>
+  <si>
+    <t>util-linux-mkfs</t>
+  </si>
+  <si>
+    <t>util-linux-sfdisk</t>
+  </si>
+  <si>
+    <t>resize-rootfs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glibc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kernel-devicetree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kernel-image-zimage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>netbase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libpam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libxcrypt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dbus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kmod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ldconfig</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libnss-myhostname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pam-plugin-keyinit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pam-plugin-loginuid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pam-plugin-unix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemd-compat-units</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemd-udev-rules</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemd-vconsole-setup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update-rc.d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>util-linux-agetty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>util-linux-mount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>util-linux-umount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volatile-binds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libacl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libcap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libkmod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libseccomp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libsystemd-shared</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>util-linux-libmount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>util-linux-libblkid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update-alternatives-opkg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alsa-utils-aplay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alsa-lib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo apt install aria2</t>
+  </si>
+  <si>
+    <t>sudo apt install uget</t>
+  </si>
+  <si>
+    <t>// uGet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 测试smb.conf有无错误</t>
+  </si>
+  <si>
+    <t>testparm /etc/samba/smb.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   valid users = fsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   read only = no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   guest ok = yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   browseable = yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   path = /home/fsd/vm_share</t>
+  </si>
+  <si>
+    <t>[vm_share]</t>
+  </si>
+  <si>
+    <t>/etc/samba/smb.conf</t>
+  </si>
+  <si>
+    <t>// 将fsd加入到samba中，设置密码</t>
+  </si>
+  <si>
+    <t>sudo smbpasswd -a fsd</t>
+  </si>
+  <si>
+    <t>sudo apt install samba</t>
+  </si>
+  <si>
+    <t>// samba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use_proxy = on</t>
+  </si>
+  <si>
+    <t>no_proxy = 192.168.120.1:8080;127.0.0.1</t>
+  </si>
+  <si>
+    <t>ftp_proxy = http://192.168.120.1:8080</t>
+  </si>
+  <si>
+    <t>http_proxy = http://192.168.120.1:8080</t>
+  </si>
+  <si>
+    <t>https_proxy = http://192.168.120.1:8080</t>
+  </si>
+  <si>
+    <t>vi ~/.wgetrc</t>
+  </si>
+  <si>
+    <r>
+      <t>默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wget是安装的</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// wget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export GIT_PROXY_COMMAND=/usr/local/bin/proxy-cmd.sh</t>
+  </si>
+  <si>
+    <t>~/.bashrc最后加入</t>
+  </si>
+  <si>
+    <t>proxy-cmd.sh chmod 777</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$CORKSCREW 192.168.120.1 8080 $1 $2</t>
+  </si>
+  <si>
+    <t>CORKSCREW=`which corkscrew`</t>
+  </si>
+  <si>
+    <t>#!/bin/bash</t>
+  </si>
+  <si>
+    <t>/usr/local/bin/proxy-cmd.sh的内容如下：</t>
+  </si>
+  <si>
+    <t>git config --global core.gitproxy “/usr/local/bin/proxy-cmd.sh”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo apt install corkscrew</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>根据网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>络环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>境配置corkscrew</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>配置用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo apt install git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/davidhzq/article/details/101621482</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 安装Vmware Tools</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo apt upgrade</t>
+  </si>
+  <si>
+    <t>sudo apt update</t>
+  </si>
+  <si>
+    <t>Software &amp; Update中，配置更新源 Main Server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Acquire::ftp::proxy "ftp://192.168.120.1:8080";</t>
+  </si>
+  <si>
+    <t>Acquire::https::proxy "http://192.168.120.1:8080";</t>
+  </si>
+  <si>
+    <t>Acquire::http::proxy "http://192.168.120.1:8080";</t>
+  </si>
+  <si>
+    <t>/etc/apt/apt.conf.d/80proxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 配置apt的代理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.120.1 8080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 配置代理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1TB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>// 在yocto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nodejs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时发现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16GB不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>够</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24GB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 根据TISDK yocto的要求</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linux Distribution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vmware Workstation Pro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 采用最小化的base image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACHINE=am335x-evm bitbake -k tisdk-base-image --runall=fetch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先下载</t>
+  </si>
+  <si>
+    <t>./oe-layertool-setup.sh -f configs/processor-sdk/processor-sdk-09.03.05.02-legacy-config.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://software-dl.ti.com/processor-sdk-linux/esd/AM335X/09_03_05_02/exports/docs/linux/Overview_Building_the_SDK.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ti.com/tool/PROCESSOR-SDK-AM335X#downloads</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2454,7 +3148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2474,6 +3168,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2778,12 +3473,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:E81"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>901</v>
+      </c>
+      <c r="C6">
+        <v>22.04</v>
+      </c>
+      <c r="E6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>899</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C8" t="s">
+        <v>897</v>
+      </c>
+      <c r="E8" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>895</v>
+      </c>
+      <c r="C9" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>858</v>
+      </c>
+      <c r="D67" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>849</v>
+      </c>
+      <c r="C75" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>845</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:J13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>904</v>
+      </c>
+      <c r="J13" t="s">
+        <v>903</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H726"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4123,7 +5185,9 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>727</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>28</v>
       </c>
@@ -9745,7 +10809,9 @@
       </c>
     </row>
     <row r="441" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B441" s="4"/>
+      <c r="B441" s="4" t="s">
+        <v>726</v>
+      </c>
       <c r="C441" s="1" t="s">
         <v>128</v>
       </c>
@@ -13850,7 +14916,9 @@
       </c>
     </row>
     <row r="700" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B700" s="4"/>
+      <c r="B700" s="4" t="s">
+        <v>726</v>
+      </c>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="3" t="s">
@@ -14282,12 +15350,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C57"/>
+  <dimension ref="C5:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14369,29 +15437,48 @@
         <v>753</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="L50" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="L51" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="L52" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="L53" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
         <v>760</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -14401,12 +15488,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:F38"/>
+  <dimension ref="C11:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14432,40 +15519,679 @@
       </c>
     </row>
     <row r="25" spans="3:6" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
         <v>737</v>
       </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C32" s="10" t="s">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="10" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C38" s="10" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C39" s="10" t="s">
         <v>736</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:E123"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D12" s="11" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>768</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>775</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D15" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="E15" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D16" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D17" s="11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D18" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D19" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="E19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D21" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="E21" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E24" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D43" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="E43" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D44" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>762</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="E45" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>776</v>
+      </c>
+      <c r="D46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D62" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D73" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D75" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D76" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D80" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D81" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D82" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D83" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D84" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D85" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D86" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>763</v>
+      </c>
+      <c r="D87" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>776</v>
+      </c>
+      <c r="D88" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D89" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D91" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D92" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D93" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D94" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D96" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D97" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D99" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D100" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D101" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D105" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D107" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D109" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D110" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D111" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D112" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D113" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D115" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D116" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D117" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D118" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D119" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D120" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D121" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D122" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D123" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/images.xlsx
+++ b/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="923">
   <si>
     <t>acl</t>
   </si>
@@ -2694,9 +2694,6 @@
   </si>
   <si>
     <t>// 测试smb.conf有无错误</t>
-  </si>
-  <si>
-    <t>testparm /etc/samba/smb.conf</t>
   </si>
   <si>
     <t xml:space="preserve">   valid users = fsd</t>
@@ -2941,10 +2938,6 @@
   </si>
   <si>
     <t>Acquire::http::proxy "http://192.168.120.1:8080";</t>
-  </si>
-  <si>
-    <t>/etc/apt/apt.conf.d/80proxy</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>// 配置apt的代理</t>
@@ -3026,10 +3019,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>24GB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RAM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3065,11 +3054,141 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>https://www.ti.com/tool/PROCESSOR-SDK-AM335X#downloads</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://releases.ubuntu.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 或者 Virtual BOX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16GB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>https://software-dl.ti.com/processor-sdk-linux/esd/AM335X/09_03_05_02/exports/docs/linux/Overview_Building_the_SDK.html</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.ti.com/tool/PROCESSOR-SDK-AM335X#downloads</t>
+    <t>16GB = 16384 MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>不要自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动安装</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ubuntu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pxz / pxz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备 --&gt; 安装增强功能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo 运行 VBoxLinuxAdditions.run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/etc/apt/apt.conf.d/80proxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重启</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testparm /etc/samba/smb.conf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>启用第二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块网卡</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机(Host-Only)网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>络</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重启</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电脑 添加 网络位置</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wget需要配置</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3148,7 +3267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3169,6 +3288,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3473,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E81"/>
+  <dimension ref="B5:I81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3484,284 +3606,329 @@
     <col min="2" max="2" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C6">
         <v>22.04</v>
       </c>
       <c r="E6" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+        <v>897</v>
+      </c>
+      <c r="I6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C8" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="E8" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+        <v>894</v>
+      </c>
+      <c r="I8" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C9" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I11" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I13" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+        <v>891</v>
+      </c>
+      <c r="I14" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+        <v>882</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>882</v>
+        <v>881</v>
+      </c>
+      <c r="I31" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D67" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+        <v>856</v>
+      </c>
+      <c r="I67" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+        <v>854</v>
+      </c>
+      <c r="I69" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+        <v>853</v>
+      </c>
+      <c r="I70" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>849</v>
+        <v>917</v>
       </c>
       <c r="C75" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>846</v>
       </c>
@@ -3780,35 +3947,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:J13"/>
+  <dimension ref="C6:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.15">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>904</v>
-      </c>
-      <c r="J13" t="s">
         <v>903</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>901</v>
+      </c>
+      <c r="J17" t="s">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -3829,7 +4001,7 @@
   <sheetData>
     <row r="7" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -3842,10 +4014,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H726"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F528" sqref="F528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3870,7 +4042,7 @@
       <c r="E6" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="12" t="s">
         <v>742</v>
       </c>
       <c r="G6" s="2" t="s">

--- a/images.xlsx
+++ b/images.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="6" r:id="rId1"/>
     <sheet name="Yocto" sheetId="7" r:id="rId2"/>
     <sheet name="TISDK" sheetId="8" r:id="rId3"/>
-    <sheet name="am3358-evm" sheetId="1" r:id="rId4"/>
+    <sheet name="PRU" sheetId="9" r:id="rId4"/>
     <sheet name="misc" sheetId="3" r:id="rId5"/>
-    <sheet name="meta-pjname" sheetId="4" r:id="rId6"/>
-    <sheet name="IMAGE_INSTALL" sheetId="5" r:id="rId7"/>
+    <sheet name="am3358-evm" sheetId="1" r:id="rId6"/>
+    <sheet name="meta-pjname" sheetId="4" r:id="rId7"/>
+    <sheet name="IMAGE_INSTALL" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'am3358-evm'!$B$6:$H$726</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'am3358-evm'!$B$6:$H$726</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="931">
   <si>
     <t>acl</t>
   </si>
@@ -2333,10 +2334,6 @@
   </si>
   <si>
     <t>sudo umount /media/fsd/boot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unxz unxz tisdk-base-image-pjname.wic.xz</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3043,10 +3040,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MACHINE=am335x-evm bitbake -k tisdk-base-image --runall=fetch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>先下载</t>
   </si>
   <si>
@@ -3067,10 +3060,6 @@
   </si>
   <si>
     <t>16GB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://software-dl.ti.com/processor-sdk-linux/esd/AM335X/09_03_05_02/exports/docs/linux/Overview_Building_the_SDK.html</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3189,6 +3178,76 @@
   </si>
   <si>
     <t>wget需要配置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://software-dl.ti.com/processor-sdk-linux/esd/AM335X/09_03_05_02/exports/docs/linux/Overview_Building_the_SDK.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACHINE=am335x-evm bitbake -k tisdk-base-image --runall=fetch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.beagleboard.org/books/pru-cookbook/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/boyemachao/article/details/89476374</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git clone https://git.ti.com/git/pru-software-support-package/pru-software-support-package.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>提供代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码例子</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRU CGT 安装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ti.com/tool/PRU-CGT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.virtualbox.org/wiki/Downloads</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>双</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击安装    版本一致</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unxz tisdk-base-image-pjname.wic.xz</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3595,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I81"/>
+  <dimension ref="B5:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3608,32 +3667,32 @@
   <sheetData>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C5">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C6">
         <v>22.04</v>
       </c>
       <c r="E6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -3641,301 +3700,312 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I8" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I11" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I13" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I14" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I31" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I32" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D67" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I67" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I69" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I70" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C75" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>845</v>
+        <v>844</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -3950,37 +4020,37 @@
   <dimension ref="C6:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="J17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -4001,7 +4071,7 @@
   <sheetData>
     <row r="7" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -4012,9 +4082,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C11:C24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>927</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:L59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="L50" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>755</v>
+      </c>
+      <c r="L51" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>756</v>
+      </c>
+      <c r="L52" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>757</v>
+      </c>
+      <c r="L53" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>768</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H726"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="F528" sqref="F528"/>
@@ -15522,145 +15777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:L59"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="L50" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>756</v>
-      </c>
-      <c r="L51" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
-        <v>757</v>
-      </c>
-      <c r="L52" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
-        <v>758</v>
-      </c>
-      <c r="L53" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
-        <v>769</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C11:F43"/>
   <sheetViews>
@@ -15735,7 +15852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:E123"/>
   <sheetViews>
@@ -15752,224 +15869,224 @@
   <sheetData>
     <row r="8" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D12" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D15" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D16" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="E21" t="s">
         <v>818</v>
-      </c>
-      <c r="E21" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E40" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D43" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E43" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D44" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="E45" t="s">
         <v>843</v>
-      </c>
-      <c r="E45" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D46" t="s">
         <v>230</v>
@@ -16017,7 +16134,7 @@
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.15">
@@ -16052,7 +16169,7 @@
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.15">
@@ -16067,17 +16184,17 @@
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.15">
@@ -16087,7 +16204,7 @@
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.15">
@@ -16107,7 +16224,7 @@
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D73" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.15">
@@ -16117,7 +16234,7 @@
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D75" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.15">
@@ -16127,12 +16244,12 @@
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.15">
@@ -16142,12 +16259,12 @@
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D80" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D81" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
@@ -16177,23 +16294,23 @@
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D87" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D88" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D89" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.15">
@@ -16208,32 +16325,32 @@
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D93" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D94" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D95" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D97" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.15">
@@ -16243,12 +16360,12 @@
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D100" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.15">
@@ -16263,17 +16380,17 @@
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D103" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D104" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D105" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.15">
@@ -16293,12 +16410,12 @@
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D109" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D110" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.15">
@@ -16323,12 +16440,12 @@
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D115" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D116" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.15">
@@ -16343,22 +16460,22 @@
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D119" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D120" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D121" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D122" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.15">

--- a/images.xlsx
+++ b/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="948">
   <si>
     <t>acl</t>
   </si>
@@ -3249,6 +3249,57 @@
   <si>
     <t>unxz tisdk-base-image-pjname.wic.xz</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUMMARY = "TensorFlow Lite Runtime Python package"</t>
+  </si>
+  <si>
+    <t>LICENSE = "Apache-2.0"</t>
+  </si>
+  <si>
+    <t>LIC_FILES_CHKSUM = "file://${COMMON_LICENSE_DIR}/Apache-2.0;md5=89aea4e17d99a7cacdbeed46a0096b10"</t>
+  </si>
+  <si>
+    <t>SRC_URI = "file://tflite_runtime-2.13.0-cp310-cp310-manylinux2014_armv7l.whl"</t>
+  </si>
+  <si>
+    <t>S = "${WORKDIR}"</t>
+  </si>
+  <si>
+    <t>inherit python3native</t>
+  </si>
+  <si>
+    <t>do_configure[noexec] = "1"</t>
+  </si>
+  <si>
+    <t>do_compile[noexec] = "1"</t>
+  </si>
+  <si>
+    <t>do_install() {</t>
+  </si>
+  <si>
+    <t>install -d ${D}${PYTHON_SITEPACKAGES_DIR}</t>
+  </si>
+  <si>
+    <t>${PYTHON} -m zipfile \</t>
+  </si>
+  <si>
+    <t>-e ${WORKDIR}/tflite_runtime-2.13.0-cp310-cp310-manylinux2014_armv7l.whl \</t>
+  </si>
+  <si>
+    <t>${D}${PYTHON_SITEPACKAGES_DIR}</t>
+  </si>
+  <si>
+    <t># Tell Yocto which files belong to this package</t>
+  </si>
+  <si>
+    <t>FILES:${PN} += "${PYTHON_SITEPACKAGES_DIR}/tflite_runtime* \</t>
+  </si>
+  <si>
+    <t>${PYTHON_SITEPACKAGES_DIR}/tflite_runtime-*.dist-info"</t>
+  </si>
+  <si>
+    <t>RDEPENDS:${PN} += "python3-core python3-numpy"</t>
   </si>
 </sst>
 </file>
@@ -4131,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -15779,10 +15830,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:F43"/>
+  <dimension ref="C11:G74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15845,6 +15896,96 @@
       </c>
     </row>
     <row r="43" spans="3:3" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E66" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G72" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>947</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15856,7 +15997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:E123"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>

--- a/images.xlsx
+++ b/images.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69872FE-00BD-4C88-A592-5A0E7D539DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1747" windowWidth="15390" windowHeight="9068" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="1740" windowWidth="15390" windowHeight="9075" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="949">
   <si>
     <t>acl</t>
   </si>
@@ -2237,7 +2236,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2248,7 +2247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2692,7 +2691,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2703,7 +2702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2713,7 +2712,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2724,7 +2723,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2774,7 +2773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2785,7 +2784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2801,7 +2800,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2812,7 +2811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2822,7 +2821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2833,7 +2832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2904,7 +2903,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2915,7 +2914,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2925,7 +2924,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2936,7 +2935,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2946,7 +2945,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3014,7 +3013,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3059,7 +3058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3076,7 +3075,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3086,7 +3085,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3107,7 +3106,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3148,7 +3147,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3177,7 +3176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3251,77 +3250,55 @@
     <t>setenv hostname am335x-evm</t>
   </si>
   <si>
-    <t>setenv pxz_rootpath /home/pxz/vm_share/tisdk/build/arago-tmp-default-glibc/work/am335x_evm-oe-linux-gnueabi/tisdk-default-image/1.0-r0_tisdk_5/rootfs</t>
+    <t>//saveenv</t>
+  </si>
+  <si>
+    <t>run pxz_nfs</t>
+  </si>
+  <si>
+    <t>setenv pxz_netargs 'setenv bootargs console=ttyS0,115200 root=/dev/nfs nfsroot=${serverip}:${pxz_rootpath},${pxz_nfsopts} rw ip=${ipaddr}:${serverip}:${gatewayip}:${netmask}:${hostname}::off'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setenv serverip 172.16.10.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setenv ipaddr 172.16.10.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setenv pxz_nfsopts tcp,v3</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>setenv pxz_nfs 'echo Booting from network ...; tftp ${loadaddr} zImage; run findfdt; run netloadfdt; run pxz_netargs; bootz ${loadaddr} - ${fdtaddr}'</t>
-  </si>
-  <si>
-    <t>//saveenv</t>
-  </si>
-  <si>
-    <t>run pxz_nfs</t>
-  </si>
-  <si>
-    <t>setenv pxz_netargs 'setenv bootargs console=ttyS0,115200 root=/dev/nfs nfsroot=${serverip}:${pxz_rootpath},${pxz_nfsopts} rw ip=${ipaddr}:${serverip}:${gatewayip}:${netmask}:${hostname}::off'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>setenv serverip 172.16.10.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>setenv ipaddr 172.16.10.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>systemctl mask systemd-journald-audit.socket</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>systemctl mask hugetlbfs.mount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>systemctl mask systemd-fsck-root.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[   20.042441] systemd[1]: tmp.mount: Mount process exited, code=exited, status=32/n/a</t>
-  </si>
-  <si>
-    <t>[   20.050212] systemd[1]: tmp.mount: Failed with result 'exit-code'.</t>
-  </si>
-  <si>
-    <t>[   20.091424] systemd[1]: Failed to mount Temporary Directory /tmp.</t>
-  </si>
-  <si>
-    <t>[FAILED] Failed to mount Temporary Directory /tmp.</t>
-  </si>
-  <si>
-    <t>See 'systemctl status tmp.mount' for details.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>setenv pxz_nfsopts tcp,v3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemctl --failed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setenv pxz_rootpath /srv/nfs/rootfs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3329,7 +3306,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3419,9 +3396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3459,9 +3436,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3496,7 +3473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3531,7 +3508,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3704,19 +3681,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I89"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.265625" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>887</v>
       </c>
@@ -3727,7 +3704,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>886</v>
       </c>
@@ -3741,7 +3718,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>884</v>
       </c>
@@ -3749,7 +3726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>883</v>
       </c>
@@ -3763,7 +3740,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>881</v>
       </c>
@@ -3771,17 +3748,17 @@
         <v>880</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I11" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I13" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>879</v>
       </c>
@@ -3789,52 +3766,52 @@
         <v>898</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>870</v>
       </c>
@@ -3842,7 +3819,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>869</v>
       </c>
@@ -3850,127 +3827,127 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I32" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>845</v>
       </c>
@@ -3981,7 +3958,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>843</v>
       </c>
@@ -3989,7 +3966,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>842</v>
       </c>
@@ -3997,7 +3974,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>841</v>
       </c>
@@ -4005,27 +3982,27 @@
         <v>907</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>903</v>
       </c>
@@ -4033,28 +4010,28 @@
         <v>836</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="85" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>918</v>
       </c>
@@ -4067,36 +4044,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>910</v>
       </c>
@@ -4111,16 +4088,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>891</v>
       </c>
@@ -4132,41 +4109,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C11:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>916</v>
       </c>
@@ -4179,98 +4156,98 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L59"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="15" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="38" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.15">
       <c r="L50" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
         <v>744</v>
       </c>
@@ -4278,7 +4255,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>745</v>
       </c>
@@ -4286,7 +4263,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>746</v>
       </c>
@@ -4294,17 +4271,17 @@
         <v>747</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
         <v>757</v>
       </c>
@@ -4317,7 +4294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D726"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -4326,14 +4303,14 @@
       <selection pane="bottomLeft" activeCell="G537" sqref="G537"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>719</v>
       </c>
@@ -4344,7 +4321,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -4353,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>720</v>
       </c>
@@ -4364,21 +4341,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>223</v>
@@ -4387,7 +4364,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>224</v>
@@ -4396,7 +4373,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>225</v>
@@ -4405,7 +4382,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>226</v>
@@ -4414,7 +4391,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>227</v>
@@ -4423,7 +4400,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>228</v>
@@ -4432,14 +4409,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -4448,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>229</v>
@@ -4457,7 +4434,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
         <v>230</v>
@@ -4466,7 +4443,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>231</v>
@@ -4475,49 +4452,49 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -4526,7 +4503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>720</v>
       </c>
@@ -4537,14 +4514,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -4553,7 +4530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>720</v>
       </c>
@@ -4564,7 +4541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>720</v>
       </c>
@@ -4575,14 +4552,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>720</v>
       </c>
@@ -4593,7 +4570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
         <v>232</v>
@@ -4602,7 +4579,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
       <c r="C37" s="1" t="s">
         <v>9</v>
@@ -4611,7 +4588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -4620,7 +4597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -4629,7 +4606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -4638,14 +4615,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>720</v>
       </c>
@@ -4656,14 +4633,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -4672,7 +4649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>720</v>
       </c>
@@ -4683,7 +4660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
       <c r="C46" s="1" t="s">
         <v>233</v>
@@ -4692,7 +4669,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>720</v>
       </c>
@@ -4703,14 +4680,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
       <c r="C49" s="1" t="s">
         <v>234</v>
@@ -4719,7 +4696,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
       <c r="C50" s="1" t="s">
         <v>235</v>
@@ -4728,7 +4705,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
       <c r="C51" s="1" t="s">
         <v>236</v>
@@ -4737,28 +4714,28 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
       <c r="C55" s="1" t="s">
         <v>239</v>
@@ -4767,7 +4744,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>720</v>
       </c>
@@ -4778,14 +4755,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
       <c r="C58" s="1" t="s">
         <v>18</v>
@@ -4794,7 +4771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
       <c r="C59" s="1" t="s">
         <v>19</v>
@@ -4803,7 +4780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>720</v>
       </c>
@@ -4814,14 +4791,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
       <c r="C62" s="1" t="s">
         <v>21</v>
@@ -4830,14 +4807,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="3"/>
       <c r="C64" s="1" t="s">
         <v>240</v>
@@ -4846,14 +4823,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="1" t="s">
         <v>241</v>
@@ -4862,28 +4839,28 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>720</v>
       </c>
@@ -4894,7 +4871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B71" s="3"/>
       <c r="C71" s="1" t="s">
         <v>243</v>
@@ -4903,7 +4880,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B72" s="3"/>
       <c r="C72" s="1" t="s">
         <v>244</v>
@@ -4912,7 +4889,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>720</v>
       </c>
@@ -4923,7 +4900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B74" s="3"/>
       <c r="C74" s="1" t="s">
         <v>245</v>
@@ -4932,7 +4909,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B75" s="3"/>
       <c r="C75" s="1" t="s">
         <v>246</v>
@@ -4941,7 +4918,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B76" s="3"/>
       <c r="C76" s="1" t="s">
         <v>24</v>
@@ -4950,7 +4927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
         <v>720</v>
       </c>
@@ -4961,14 +4938,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="3"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>721</v>
       </c>
@@ -4977,21 +4954,21 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B80" s="3"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B82" s="3"/>
       <c r="C82" s="1" t="s">
         <v>26</v>
@@ -5000,7 +4977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>720</v>
       </c>
@@ -5011,14 +4988,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
         <v>721</v>
       </c>
@@ -5029,7 +5006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B86" s="3"/>
       <c r="C86" s="1" t="s">
         <v>29</v>
@@ -5038,7 +5015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B87" s="3"/>
       <c r="C87" s="1" t="s">
         <v>30</v>
@@ -5047,14 +5024,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
         <v>247</v>
@@ -5063,7 +5040,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>720</v>
       </c>
@@ -5074,14 +5051,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B92" s="3"/>
       <c r="C92" s="1" t="s">
         <v>32</v>
@@ -5090,7 +5067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B93" s="3"/>
       <c r="C93" s="1" t="s">
         <v>248</v>
@@ -5099,14 +5076,14 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B95" s="3" t="s">
         <v>720</v>
       </c>
@@ -5117,7 +5094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B96" s="3"/>
       <c r="C96" s="1" t="s">
         <v>34</v>
@@ -5126,7 +5103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="3"/>
       <c r="C97" s="1" t="s">
         <v>249</v>
@@ -5135,14 +5112,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B99" s="3" t="s">
         <v>720</v>
       </c>
@@ -5153,7 +5130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="3" t="s">
         <v>720</v>
       </c>
@@ -5164,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
         <v>250</v>
@@ -5173,7 +5150,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B102" s="3"/>
       <c r="C102" s="1" t="s">
         <v>251</v>
@@ -5182,7 +5159,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="3" t="s">
         <v>720</v>
       </c>
@@ -5193,7 +5170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" s="3"/>
       <c r="C104" s="1" t="s">
         <v>252</v>
@@ -5202,7 +5179,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" s="3" t="s">
         <v>720</v>
       </c>
@@ -5213,7 +5190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B106" s="3" t="s">
         <v>720</v>
       </c>
@@ -5224,7 +5201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B107" s="3"/>
       <c r="C107" s="1" t="s">
         <v>40</v>
@@ -5233,7 +5210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" s="3" t="s">
         <v>720</v>
       </c>
@@ -5244,7 +5221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B109" s="3"/>
       <c r="C109" s="1" t="s">
         <v>253</v>
@@ -5253,7 +5230,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B110" s="3" t="s">
         <v>720</v>
       </c>
@@ -5264,7 +5241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="3"/>
       <c r="C111" s="1" t="s">
         <v>254</v>
@@ -5273,7 +5250,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B112" s="3" t="s">
         <v>720</v>
       </c>
@@ -5284,7 +5261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B113" s="3"/>
       <c r="C113" s="1" t="s">
         <v>255</v>
@@ -5293,28 +5270,28 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B114" s="3"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B115" s="3"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B116" s="3"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
         <v>44</v>
@@ -5323,7 +5300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B118" s="3" t="s">
         <v>720</v>
       </c>
@@ -5334,14 +5311,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B119" s="3"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B120" s="3"/>
       <c r="C120" s="1" t="s">
         <v>257</v>
@@ -5350,7 +5327,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B121" s="3"/>
       <c r="C121" s="1" t="s">
         <v>258</v>
@@ -5359,14 +5336,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B122" s="3"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B123" s="3"/>
       <c r="C123" s="1" t="s">
         <v>259</v>
@@ -5375,7 +5352,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B124" s="3" t="s">
         <v>720</v>
       </c>
@@ -5386,7 +5363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B125" s="3"/>
       <c r="C125" s="1" t="s">
         <v>47</v>
@@ -5395,14 +5372,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B126" s="3"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B127" s="3"/>
       <c r="C127" s="1" t="s">
         <v>260</v>
@@ -5411,7 +5388,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B128" s="3"/>
       <c r="C128" s="1" t="s">
         <v>48</v>
@@ -5420,7 +5397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B129" s="3" t="s">
         <v>720</v>
       </c>
@@ -5431,7 +5408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B130" s="3"/>
       <c r="C130" s="1" t="s">
         <v>261</v>
@@ -5440,14 +5417,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B131" s="3"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B132" s="3"/>
       <c r="C132" s="1" t="s">
         <v>262</v>
@@ -5456,14 +5433,14 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B133" s="3"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B134" s="3"/>
       <c r="C134" s="1" t="s">
         <v>263</v>
@@ -5472,28 +5449,28 @@
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B135" s="3"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B136" s="3"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B137" s="3"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B138" s="3"/>
       <c r="C138" s="1" t="s">
         <v>50</v>
@@ -5502,14 +5479,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B139" s="3"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B140" s="3"/>
       <c r="C140" s="1" t="s">
         <v>51</v>
@@ -5518,7 +5495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B141" s="3"/>
       <c r="C141" s="1" t="s">
         <v>52</v>
@@ -5527,7 +5504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B142" s="3"/>
       <c r="C142" s="1" t="s">
         <v>53</v>
@@ -5536,14 +5513,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B143" s="3"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" s="3"/>
       <c r="C144" s="1" t="s">
         <v>54</v>
@@ -5552,7 +5529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B145" s="3" t="s">
         <v>720</v>
       </c>
@@ -5563,14 +5540,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B146" s="3"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B147" s="3"/>
       <c r="C147" s="5" t="s">
         <v>266</v>
@@ -5579,14 +5556,14 @@
         <v>266</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B148" s="3"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B149" s="3" t="s">
         <v>720</v>
       </c>
@@ -5597,7 +5574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B150" s="3" t="s">
         <v>720</v>
       </c>
@@ -5608,21 +5585,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B151" s="3"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B152" s="3"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B153" s="3"/>
       <c r="C153" s="1" t="s">
         <v>58</v>
@@ -5631,7 +5608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B154" s="3" t="s">
         <v>720</v>
       </c>
@@ -5642,14 +5619,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B155" s="3"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B156" s="3"/>
       <c r="C156" s="1" t="s">
         <v>60</v>
@@ -5658,49 +5635,49 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B157" s="3"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B158" s="3"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B159" s="3"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B160" s="3"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B161" s="3"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B162" s="3"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B163" s="3"/>
       <c r="C163" s="1" t="s">
         <v>61</v>
@@ -5709,7 +5686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B164" s="3" t="s">
         <v>720</v>
       </c>
@@ -5720,14 +5697,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B165" s="3"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B166" s="3" t="s">
         <v>720</v>
       </c>
@@ -5738,7 +5715,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B167" s="3"/>
       <c r="C167" s="1" t="s">
         <v>268</v>
@@ -5747,7 +5724,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B168" s="3" t="s">
         <v>720</v>
       </c>
@@ -5758,7 +5735,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B169" s="3"/>
       <c r="C169" s="1" t="s">
         <v>269</v>
@@ -5767,7 +5744,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B170" s="3"/>
       <c r="C170" s="1" t="s">
         <v>270</v>
@@ -5776,7 +5753,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B171" s="3"/>
       <c r="C171" s="1" t="s">
         <v>271</v>
@@ -5785,7 +5762,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B172" s="3"/>
       <c r="C172" s="1" t="s">
         <v>272</v>
@@ -5794,7 +5771,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B173" s="3"/>
       <c r="C173" s="1" t="s">
         <v>273</v>
@@ -5803,7 +5780,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B174" s="3"/>
       <c r="C174" s="1" t="s">
         <v>274</v>
@@ -5812,7 +5789,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B175" s="3"/>
       <c r="C175" s="1" t="s">
         <v>275</v>
@@ -5821,7 +5798,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B176" s="3"/>
       <c r="C176" s="1" t="s">
         <v>276</v>
@@ -5830,7 +5807,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B177" s="3"/>
       <c r="C177" s="1" t="s">
         <v>277</v>
@@ -5839,7 +5816,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B178" s="3"/>
       <c r="C178" s="1" t="s">
         <v>278</v>
@@ -5848,7 +5825,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B179" s="3"/>
       <c r="C179" s="1" t="s">
         <v>279</v>
@@ -5857,7 +5834,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B180" s="3"/>
       <c r="C180" s="1" t="s">
         <v>280</v>
@@ -5866,7 +5843,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B181" s="3"/>
       <c r="C181" s="1" t="s">
         <v>281</v>
@@ -5875,7 +5852,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B182" s="3"/>
       <c r="C182" s="1" t="s">
         <v>282</v>
@@ -5884,7 +5861,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B183" s="3"/>
       <c r="C183" s="1" t="s">
         <v>283</v>
@@ -5893,7 +5870,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B184" s="3"/>
       <c r="C184" s="1" t="s">
         <v>284</v>
@@ -5902,7 +5879,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B185" s="3"/>
       <c r="C185" s="1" t="s">
         <v>285</v>
@@ -5911,14 +5888,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B186" s="3"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B187" s="3" t="s">
         <v>720</v>
       </c>
@@ -5929,7 +5906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B188" s="3" t="s">
         <v>720</v>
       </c>
@@ -5940,7 +5917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B189" s="3" t="s">
         <v>720</v>
       </c>
@@ -5951,7 +5928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B190" s="3"/>
       <c r="C190" s="1" t="s">
         <v>286</v>
@@ -5960,56 +5937,56 @@
         <v>286</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B191" s="3"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B192" s="3"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B193" s="3"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B194" s="3"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B195" s="3"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B196" s="3"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B197" s="3"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B198" s="3" t="s">
         <v>720</v>
       </c>
@@ -6020,28 +5997,28 @@
         <v>68</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B199" s="3"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B200" s="3"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B201" s="3"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B202" s="3"/>
       <c r="C202" s="1" t="s">
         <v>288</v>
@@ -6050,42 +6027,42 @@
         <v>288</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B203" s="3"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B204" s="3"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B205" s="3"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B206" s="3"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B207" s="3"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B208" s="3"/>
       <c r="C208" s="1" t="s">
         <v>291</v>
@@ -6094,7 +6071,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B209" s="3"/>
       <c r="C209" s="1" t="s">
         <v>292</v>
@@ -6103,7 +6080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B210" s="3" t="s">
         <v>720</v>
       </c>
@@ -6114,7 +6091,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B211" s="3"/>
       <c r="C211" s="1" t="s">
         <v>294</v>
@@ -6123,14 +6100,14 @@
         <v>294</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B212" s="3"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B213" s="3" t="s">
         <v>720</v>
       </c>
@@ -6141,14 +6118,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B214" s="3"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B215" s="3"/>
       <c r="C215" s="1" t="s">
         <v>295</v>
@@ -6157,7 +6134,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B216" s="3"/>
       <c r="C216" s="1" t="s">
         <v>296</v>
@@ -6166,7 +6143,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B217" s="3"/>
       <c r="C217" s="1" t="s">
         <v>297</v>
@@ -6175,14 +6152,14 @@
         <v>297</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B218" s="3"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B219" s="3" t="s">
         <v>720</v>
       </c>
@@ -6193,7 +6170,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B220" s="3"/>
       <c r="C220" s="1" t="s">
         <v>298</v>
@@ -6202,7 +6179,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B221" s="3"/>
       <c r="C221" s="1" t="s">
         <v>299</v>
@@ -6211,7 +6188,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B222" s="3"/>
       <c r="C222" s="1" t="s">
         <v>71</v>
@@ -6220,7 +6197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B223" s="3" t="s">
         <v>720</v>
       </c>
@@ -6231,21 +6208,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B224" s="3"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B225" s="3"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B226" s="3"/>
       <c r="C226" s="1" t="s">
         <v>73</v>
@@ -6254,7 +6231,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B227" s="3" t="s">
         <v>720</v>
       </c>
@@ -6265,7 +6242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B228" s="3"/>
       <c r="C228" s="1" t="s">
         <v>300</v>
@@ -6274,21 +6251,21 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B229" s="3"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B230" s="3"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B231" s="3" t="s">
         <v>720</v>
       </c>
@@ -6299,14 +6276,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B232" s="3"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B233" s="3"/>
       <c r="C233" s="1" t="s">
         <v>301</v>
@@ -6315,7 +6292,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B234" s="3"/>
       <c r="C234" s="1" t="s">
         <v>302</v>
@@ -6324,7 +6301,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B235" s="3"/>
       <c r="C235" s="1" t="s">
         <v>303</v>
@@ -6333,7 +6310,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B236" s="3" t="s">
         <v>720</v>
       </c>
@@ -6344,21 +6321,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B237" s="3"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B238" s="3"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B239" s="3"/>
       <c r="C239" s="1" t="s">
         <v>77</v>
@@ -6367,7 +6344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B240" s="3" t="s">
         <v>720</v>
       </c>
@@ -6378,7 +6355,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B241" s="3"/>
       <c r="C241" s="1" t="s">
         <v>79</v>
@@ -6387,7 +6364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B242" s="3" t="s">
         <v>720</v>
       </c>
@@ -6398,28 +6375,28 @@
         <v>80</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B243" s="3"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B244" s="3"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B245" s="3"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B246" s="3"/>
       <c r="C246" s="1" t="s">
         <v>306</v>
@@ -6428,35 +6405,35 @@
         <v>306</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B247" s="3"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B248" s="3"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B249" s="3"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B250" s="3"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B251" s="3"/>
       <c r="C251" s="1" t="s">
         <v>307</v>
@@ -6465,56 +6442,56 @@
         <v>307</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B252" s="3"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B253" s="3"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B254" s="3"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B255" s="3"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B256" s="3"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B257" s="3"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B258" s="3"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B259" s="3"/>
       <c r="C259" s="1" t="s">
         <v>309</v>
@@ -6523,7 +6500,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B260" s="3"/>
       <c r="C260" s="1" t="s">
         <v>310</v>
@@ -6532,14 +6509,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B261" s="3"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B262" s="3"/>
       <c r="C262" s="1" t="s">
         <v>81</v>
@@ -6548,7 +6525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B263" s="3" t="s">
         <v>720</v>
       </c>
@@ -6559,7 +6536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B264" s="3"/>
       <c r="C264" s="1" t="s">
         <v>83</v>
@@ -6568,7 +6545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B265" s="3"/>
       <c r="C265" s="1" t="s">
         <v>84</v>
@@ -6577,7 +6554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B266" s="3"/>
       <c r="C266" s="1" t="s">
         <v>311</v>
@@ -6586,7 +6563,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B267" s="3" t="s">
         <v>720</v>
       </c>
@@ -6597,7 +6574,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B268" s="3"/>
       <c r="C268" s="1" t="s">
         <v>312</v>
@@ -6606,7 +6583,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B269" s="3" t="s">
         <v>720</v>
       </c>
@@ -6617,14 +6594,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B270" s="3"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B271" s="3"/>
       <c r="C271" s="1" t="s">
         <v>313</v>
@@ -6633,14 +6610,14 @@
         <v>313</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B272" s="3"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B273" s="3"/>
       <c r="C273" s="1" t="s">
         <v>314</v>
@@ -6649,7 +6626,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B274" s="3"/>
       <c r="C274" s="1" t="s">
         <v>315</v>
@@ -6658,14 +6635,14 @@
         <v>315</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B275" s="3"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B276" s="3"/>
       <c r="C276" s="1" t="s">
         <v>316</v>
@@ -6674,7 +6651,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B277" s="3" t="s">
         <v>720</v>
       </c>
@@ -6685,14 +6662,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B278" s="3"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B279" s="3"/>
       <c r="C279" s="1" t="s">
         <v>318</v>
@@ -6701,7 +6678,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B280" s="3"/>
       <c r="C280" s="5" t="s">
         <v>319</v>
@@ -6710,7 +6687,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B281" s="3"/>
       <c r="C281" s="1" t="s">
         <v>320</v>
@@ -6719,7 +6696,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B282" s="3"/>
       <c r="C282" s="1" t="s">
         <v>321</v>
@@ -6728,7 +6705,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B283" s="3" t="s">
         <v>720</v>
       </c>
@@ -6739,7 +6716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B284" s="3"/>
       <c r="C284" s="1" t="s">
         <v>322</v>
@@ -6748,14 +6725,14 @@
         <v>322</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B285" s="3"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B286" s="3" t="s">
         <v>720</v>
       </c>
@@ -6766,21 +6743,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B287" s="3"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B288" s="3"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B289" s="3"/>
       <c r="C289" s="1" t="s">
         <v>323</v>
@@ -6789,7 +6766,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B290" s="3"/>
       <c r="C290" s="1" t="s">
         <v>90</v>
@@ -6798,7 +6775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B291" s="3" t="s">
         <v>720</v>
       </c>
@@ -6809,7 +6786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B292" s="3"/>
       <c r="C292" s="1" t="s">
         <v>324</v>
@@ -6818,7 +6795,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B293" s="3"/>
       <c r="C293" s="1" t="s">
         <v>325</v>
@@ -6827,7 +6804,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B294" s="3"/>
       <c r="C294" s="1" t="s">
         <v>92</v>
@@ -6836,7 +6813,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B295" s="3"/>
       <c r="C295" s="1" t="s">
         <v>326</v>
@@ -6845,7 +6822,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B296" s="3"/>
       <c r="C296" s="1" t="s">
         <v>327</v>
@@ -6854,14 +6831,14 @@
         <v>327</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B297" s="3"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B298" s="3"/>
       <c r="C298" s="1" t="s">
         <v>93</v>
@@ -6870,7 +6847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B299" s="3" t="s">
         <v>720</v>
       </c>
@@ -6881,14 +6858,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B300" s="3"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B301" s="3" t="s">
         <v>720</v>
       </c>
@@ -6899,7 +6876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B302" s="3"/>
       <c r="C302" s="1" t="s">
         <v>328</v>
@@ -6908,7 +6885,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B303" s="3"/>
       <c r="C303" s="5" t="s">
         <v>329</v>
@@ -6917,14 +6894,14 @@
         <v>329</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B304" s="3"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B305" s="3"/>
       <c r="C305" s="1" t="s">
         <v>330</v>
@@ -6933,35 +6910,35 @@
         <v>330</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B306" s="3"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B307" s="3"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B308" s="3"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B309" s="3"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B310" s="3"/>
       <c r="C310" s="1" t="s">
         <v>331</v>
@@ -6970,7 +6947,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B311" s="3"/>
       <c r="C311" s="1" t="s">
         <v>96</v>
@@ -6979,14 +6956,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B312" s="3"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B313" s="3"/>
       <c r="C313" s="1" t="s">
         <v>332</v>
@@ -6995,7 +6972,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B314" s="3"/>
       <c r="C314" s="1" t="s">
         <v>333</v>
@@ -7004,7 +6981,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B315" s="3"/>
       <c r="C315" s="1" t="s">
         <v>334</v>
@@ -7013,7 +6990,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B316" s="3" t="s">
         <v>720</v>
       </c>
@@ -7024,35 +7001,35 @@
         <v>97</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B317" s="3"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B318" s="3"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B319" s="3"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B320" s="3"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B321" s="3"/>
       <c r="C321" s="1" t="s">
         <v>335</v>
@@ -7061,14 +7038,14 @@
         <v>335</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B322" s="3"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B323" s="3"/>
       <c r="C323" s="1" t="s">
         <v>98</v>
@@ -7077,7 +7054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B324" s="3" t="s">
         <v>720</v>
       </c>
@@ -7088,7 +7065,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B325" s="3"/>
       <c r="C325" s="1" t="s">
         <v>336</v>
@@ -7097,7 +7074,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B326" s="3"/>
       <c r="C326" s="1" t="s">
         <v>100</v>
@@ -7106,7 +7083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B327" s="3" t="s">
         <v>720</v>
       </c>
@@ -7117,14 +7094,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B328" s="3"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B329" s="3"/>
       <c r="C329" s="1" t="s">
         <v>337</v>
@@ -7133,7 +7110,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B330" s="3" t="s">
         <v>720</v>
       </c>
@@ -7144,28 +7121,28 @@
         <v>102</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B331" s="3"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B332" s="3"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B333" s="3"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B334" s="3"/>
       <c r="C334" s="1" t="s">
         <v>339</v>
@@ -7174,7 +7151,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B335" s="3"/>
       <c r="C335" s="1" t="s">
         <v>340</v>
@@ -7183,49 +7160,49 @@
         <v>340</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B336" s="3"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B337" s="3"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B338" s="3"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B339" s="3"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B340" s="3"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B341" s="3"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B342" s="3"/>
       <c r="C342" s="1" t="s">
         <v>103</v>
@@ -7234,63 +7211,63 @@
         <v>103</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B343" s="3"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B344" s="3"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B345" s="3"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B346" s="3"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B347" s="3"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B348" s="3"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B349" s="3"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B350" s="3"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B351" s="3" t="s">
         <v>720</v>
       </c>
@@ -7301,7 +7278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B352" s="3"/>
       <c r="C352" s="1" t="s">
         <v>105</v>
@@ -7310,7 +7287,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B353" s="3" t="s">
         <v>720</v>
       </c>
@@ -7321,7 +7298,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B354" s="3" t="s">
         <v>720</v>
       </c>
@@ -7332,56 +7309,56 @@
         <v>536</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B355" s="3"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B356" s="3"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B357" s="3"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B358" s="3"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B359" s="3"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B360" s="3"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B361" s="3"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B362" s="3" t="s">
         <v>720</v>
       </c>
@@ -7392,28 +7369,28 @@
         <v>108</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B363" s="3"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B364" s="3"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B365" s="3"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B366" s="3"/>
       <c r="C366" s="1" t="s">
         <v>109</v>
@@ -7422,7 +7399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B367" s="3"/>
       <c r="C367" s="1" t="s">
         <v>110</v>
@@ -7431,49 +7408,49 @@
         <v>110</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B368" s="3"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B369" s="3"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B370" s="3"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B371" s="3"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B372" s="3"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B373" s="3"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B374" s="3"/>
       <c r="C374" s="1" t="s">
         <v>344</v>
@@ -7482,14 +7459,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B375" s="3"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B376" s="3" t="s">
         <v>720</v>
       </c>
@@ -7500,7 +7477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B377" s="3"/>
       <c r="C377" s="1" t="s">
         <v>345</v>
@@ -7509,7 +7486,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B378" s="3" t="s">
         <v>720</v>
       </c>
@@ -7520,7 +7497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B379" s="3"/>
       <c r="C379" s="1" t="s">
         <v>346</v>
@@ -7529,7 +7506,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B380" s="3" t="s">
         <v>720</v>
       </c>
@@ -7540,7 +7517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B381" s="3" t="s">
         <v>720</v>
       </c>
@@ -7551,7 +7528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B382" s="3"/>
       <c r="C382" s="1" t="s">
         <v>115</v>
@@ -7560,7 +7537,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B383" s="3" t="s">
         <v>720</v>
       </c>
@@ -7571,14 +7548,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B384" s="3"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B385" s="3"/>
       <c r="C385" s="1" t="s">
         <v>117</v>
@@ -7587,7 +7564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B386" s="3" t="s">
         <v>720</v>
       </c>
@@ -7598,7 +7575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B387" s="3" t="s">
         <v>720</v>
       </c>
@@ -7609,7 +7586,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B388" s="3" t="s">
         <v>720</v>
       </c>
@@ -7620,196 +7597,196 @@
         <v>119</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B389" s="3"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B390" s="3"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B391" s="3"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B392" s="3"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B393" s="3"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B394" s="3"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B395" s="3"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B396" s="3"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B397" s="3"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B398" s="3"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B399" s="3"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B400" s="3"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B401" s="3"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B402" s="3"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B403" s="3"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B404" s="3"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B405" s="3"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B406" s="3"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B407" s="3"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B408" s="3"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B409" s="3"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B410" s="3"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B411" s="3"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B412" s="3"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B413" s="3"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B414" s="3"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B415" s="3"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B416" s="3"/>
       <c r="C416" s="1" t="s">
         <v>348</v>
@@ -7818,7 +7795,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B417" s="3" t="s">
         <v>720</v>
       </c>
@@ -7829,21 +7806,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B418" s="3"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B419" s="3"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B420" s="3"/>
       <c r="C420" s="1" t="s">
         <v>349</v>
@@ -7852,14 +7829,14 @@
         <v>349</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B421" s="3"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B422" s="3" t="s">
         <v>720</v>
       </c>
@@ -7870,21 +7847,21 @@
         <v>121</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B423" s="3"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B424" s="3"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B425" s="3"/>
       <c r="C425" s="1" t="s">
         <v>350</v>
@@ -7893,7 +7870,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B426" s="3" t="s">
         <v>720</v>
       </c>
@@ -7904,14 +7881,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B427" s="3"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B428" s="3" t="s">
         <v>720</v>
       </c>
@@ -7922,7 +7899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B429" s="3" t="s">
         <v>720</v>
       </c>
@@ -7933,14 +7910,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B430" s="3"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B431" s="3"/>
       <c r="C431" s="1" t="s">
         <v>125</v>
@@ -7949,7 +7926,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B432" s="3" t="s">
         <v>720</v>
       </c>
@@ -7960,7 +7937,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B433" s="3"/>
       <c r="C433" s="1" t="s">
         <v>352</v>
@@ -7969,21 +7946,21 @@
         <v>352</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B434" s="3"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B435" s="3"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B436" s="3"/>
       <c r="C436" s="1" t="s">
         <v>127</v>
@@ -7992,21 +7969,21 @@
         <v>127</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B437" s="3"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B438" s="3"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B439" s="3"/>
       <c r="C439" s="1" t="s">
         <v>353</v>
@@ -8015,7 +7992,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B440" s="3"/>
       <c r="C440" s="1" t="s">
         <v>354</v>
@@ -8024,7 +8001,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B441" s="3" t="s">
         <v>720</v>
       </c>
@@ -8035,7 +8012,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B442" s="3"/>
       <c r="C442" s="1" t="s">
         <v>355</v>
@@ -8044,7 +8021,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B443" s="3" t="s">
         <v>720</v>
       </c>
@@ -8055,14 +8032,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B444" s="3"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B445" s="3"/>
       <c r="C445" s="1" t="s">
         <v>356</v>
@@ -8071,21 +8048,21 @@
         <v>356</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B446" s="3"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B447" s="3"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B448" s="3"/>
       <c r="C448" s="1" t="s">
         <v>357</v>
@@ -8094,56 +8071,56 @@
         <v>357</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B449" s="3"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B450" s="3"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B451" s="3"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B452" s="3"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B453" s="3"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B454" s="3"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B455" s="3"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B456" s="3"/>
       <c r="C456" s="1" t="s">
         <v>359</v>
@@ -8152,7 +8129,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B457" s="3"/>
       <c r="C457" s="1" t="s">
         <v>130</v>
@@ -8161,7 +8138,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B458" s="3" t="s">
         <v>720</v>
       </c>
@@ -8172,7 +8149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B459" s="3"/>
       <c r="C459" s="1" t="s">
         <v>360</v>
@@ -8181,7 +8158,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B460" s="3"/>
       <c r="C460" s="1" t="s">
         <v>361</v>
@@ -8190,7 +8167,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B461" s="3"/>
       <c r="C461" s="1" t="s">
         <v>362</v>
@@ -8199,7 +8176,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B462" s="3" t="s">
         <v>720</v>
       </c>
@@ -8210,7 +8187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B463" s="3"/>
       <c r="C463" s="1" t="s">
         <v>133</v>
@@ -8219,7 +8196,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B464" s="3" t="s">
         <v>720</v>
       </c>
@@ -8230,35 +8207,35 @@
         <v>134</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B465" s="3"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B466" s="3"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B467" s="3"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B468" s="3"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B469" s="3"/>
       <c r="C469" s="1" t="s">
         <v>135</v>
@@ -8267,7 +8244,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B470" s="3"/>
       <c r="C470" s="1" t="s">
         <v>363</v>
@@ -8276,7 +8253,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B471" s="3"/>
       <c r="C471" s="1" t="s">
         <v>364</v>
@@ -8285,102 +8262,102 @@
         <v>364</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B472" s="3"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B473" s="3"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B474" s="3"/>
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B475" s="3"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B476" s="3"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B477" s="3"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B478" s="3"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B479" s="3"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B480" s="3"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B481" s="3"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B482" s="3"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B483" s="3"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B484" s="3"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B485" s="3"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B486" s="3"/>
       <c r="C486" s="1" t="s">
         <v>368</v>
@@ -8389,7 +8366,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B487" s="3"/>
       <c r="C487" s="1" t="s">
         <v>136</v>
@@ -8398,35 +8375,35 @@
         <v>136</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B488" s="3"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B489" s="3"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B490" s="3"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B491" s="3"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B492" s="3"/>
       <c r="C492" s="1" t="s">
         <v>370</v>
@@ -8435,7 +8412,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B493" s="3" t="s">
         <v>720</v>
       </c>
@@ -8446,7 +8423,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B494" s="3" t="s">
         <v>720</v>
       </c>
@@ -8457,42 +8434,42 @@
         <v>138</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B495" s="3"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B496" s="3"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B497" s="3"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B498" s="3"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B499" s="3"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B500" s="3"/>
       <c r="C500" s="1" t="s">
         <v>139</v>
@@ -8501,7 +8478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B501" s="3" t="s">
         <v>720</v>
       </c>
@@ -8512,7 +8489,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B502" s="3" t="s">
         <v>720</v>
       </c>
@@ -8523,21 +8500,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B503" s="3"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B504" s="3"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B505" s="3"/>
       <c r="C505" s="1" t="s">
         <v>372</v>
@@ -8546,14 +8523,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B506" s="3"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B507" s="3" t="s">
         <v>720</v>
       </c>
@@ -8564,7 +8541,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="508" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B508" s="3"/>
       <c r="C508" s="1" t="s">
         <v>373</v>
@@ -8573,21 +8550,21 @@
         <v>373</v>
       </c>
     </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B509" s="3"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="510" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B510" s="3"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="511" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B511" s="3" t="s">
         <v>720</v>
       </c>
@@ -8598,21 +8575,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B512" s="3"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B513" s="3"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B514" s="3" t="s">
         <v>720</v>
       </c>
@@ -8623,70 +8600,70 @@
         <v>144</v>
       </c>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B515" s="3"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B516" s="3"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B517" s="3"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B518" s="3"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B519" s="3"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B520" s="3"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B521" s="3"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B522" s="3"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B523" s="3"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B524" s="3"/>
       <c r="C524" s="1" t="s">
         <v>145</v>
@@ -8695,7 +8672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B525" s="3"/>
       <c r="C525" s="1" t="s">
         <v>146</v>
@@ -8704,7 +8681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B526" s="3"/>
       <c r="C526" s="1" t="s">
         <v>147</v>
@@ -8713,7 +8690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B527" s="3" t="s">
         <v>720</v>
       </c>
@@ -8724,7 +8701,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B528" s="3"/>
       <c r="C528" s="5" t="s">
         <v>374</v>
@@ -8733,21 +8710,21 @@
         <v>374</v>
       </c>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B529" s="3"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B530" s="3"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="531" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B531" s="3"/>
       <c r="C531" s="1" t="s">
         <v>149</v>
@@ -8756,7 +8733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="532" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B532" s="3" t="s">
         <v>720</v>
       </c>
@@ -8767,7 +8744,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B533" s="3" t="s">
         <v>720</v>
       </c>
@@ -8778,7 +8755,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B534" s="3"/>
       <c r="C534" s="1" t="s">
         <v>376</v>
@@ -8787,7 +8764,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B535" s="3" t="s">
         <v>720</v>
       </c>
@@ -8798,7 +8775,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="536" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B536" s="3" t="s">
         <v>720</v>
       </c>
@@ -8809,7 +8786,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="537" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B537" s="3" t="s">
         <v>720</v>
       </c>
@@ -8820,7 +8797,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="538" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B538" s="3" t="s">
         <v>720</v>
       </c>
@@ -8831,7 +8808,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="539" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B539" s="3" t="s">
         <v>720</v>
       </c>
@@ -8842,7 +8819,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="540" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B540" s="3" t="s">
         <v>720</v>
       </c>
@@ -8853,7 +8830,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="541" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B541" s="3" t="s">
         <v>720</v>
       </c>
@@ -8864,21 +8841,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="542" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B542" s="3"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="543" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B543" s="3"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="544" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B544" s="3" t="s">
         <v>720</v>
       </c>
@@ -8889,7 +8866,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="545" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B545" s="3" t="s">
         <v>720</v>
       </c>
@@ -8900,7 +8877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="546" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B546" s="3" t="s">
         <v>720</v>
       </c>
@@ -8911,7 +8888,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="547" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B547" s="3" t="s">
         <v>720</v>
       </c>
@@ -8922,21 +8899,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="548" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B548" s="3"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="549" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B549" s="3"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="550" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B550" s="3" t="s">
         <v>720</v>
       </c>
@@ -8947,7 +8924,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="551" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B551" s="3" t="s">
         <v>720</v>
       </c>
@@ -8958,14 +8935,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="552" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B552" s="3"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="553" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B553" s="3"/>
       <c r="C553" s="1" t="s">
         <v>378</v>
@@ -8974,7 +8951,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="554" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B554" s="3"/>
       <c r="C554" s="1" t="s">
         <v>379</v>
@@ -8983,7 +8960,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="555" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B555" s="3" t="s">
         <v>720</v>
       </c>
@@ -8994,7 +8971,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="556" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B556" s="3"/>
       <c r="C556" s="1" t="s">
         <v>380</v>
@@ -9003,7 +8980,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="557" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B557" s="3" t="s">
         <v>720</v>
       </c>
@@ -9014,7 +8991,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="558" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B558" s="3" t="s">
         <v>720</v>
       </c>
@@ -9025,7 +9002,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="559" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B559" s="3" t="s">
         <v>720</v>
       </c>
@@ -9036,7 +9013,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="560" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B560" s="3" t="s">
         <v>720</v>
       </c>
@@ -9047,7 +9024,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="561" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B561" s="3" t="s">
         <v>720</v>
       </c>
@@ -9058,7 +9035,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="562" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B562" s="3" t="s">
         <v>720</v>
       </c>
@@ -9069,14 +9046,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="563" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B563" s="3"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="564" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B564" s="3" t="s">
         <v>720</v>
       </c>
@@ -9087,7 +9064,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="565" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B565" s="3" t="s">
         <v>720</v>
       </c>
@@ -9098,7 +9075,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="566" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B566" s="3" t="s">
         <v>720</v>
       </c>
@@ -9109,7 +9086,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="567" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B567" s="3" t="s">
         <v>720</v>
       </c>
@@ -9120,7 +9097,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="568" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B568" s="3" t="s">
         <v>720</v>
       </c>
@@ -9131,7 +9108,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="569" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B569" s="3" t="s">
         <v>720</v>
       </c>
@@ -9142,7 +9119,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="570" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B570" s="3" t="s">
         <v>720</v>
       </c>
@@ -9153,7 +9130,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="571" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B571" s="3" t="s">
         <v>720</v>
       </c>
@@ -9164,7 +9141,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="572" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B572" s="3" t="s">
         <v>720</v>
       </c>
@@ -9175,7 +9152,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="573" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B573" s="3"/>
       <c r="C573" s="1" t="s">
         <v>180</v>
@@ -9184,189 +9161,189 @@
         <v>180</v>
       </c>
     </row>
-    <row r="574" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B574" s="3"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="575" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B575" s="3"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="576" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B576" s="3"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="577" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B577" s="3"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B578" s="3"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="579" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B579" s="3"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="580" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B580" s="3"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="581" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B581" s="3"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="582" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B582" s="3"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="583" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B583" s="3"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="584" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B584" s="3"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="585" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B585" s="3"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="586" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B586" s="3"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="587" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B587" s="3"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="588" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B588" s="3"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="589" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B589" s="3"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="590" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B590" s="3"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="591" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B591" s="3"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="592" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B592" s="3"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B593" s="3"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B594" s="3"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="595" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B595" s="3"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="596" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B596" s="3"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="597" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B597" s="3"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="598" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B598" s="3"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="599" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B599" s="3"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="600" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B600" s="3" t="s">
         <v>720</v>
       </c>
@@ -9377,7 +9354,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="601" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B601" s="3"/>
       <c r="C601" s="1" t="s">
         <v>381</v>
@@ -9386,7 +9363,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="602" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B602" s="3" t="s">
         <v>720</v>
       </c>
@@ -9397,7 +9374,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="603" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B603" s="3"/>
       <c r="C603" s="1" t="s">
         <v>183</v>
@@ -9406,7 +9383,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="604" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B604" s="3" t="s">
         <v>720</v>
       </c>
@@ -9417,14 +9394,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="605" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B605" s="3"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="606" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B606" s="3"/>
       <c r="C606" s="1" t="s">
         <v>382</v>
@@ -9433,7 +9410,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="607" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B607" s="3"/>
       <c r="C607" s="1" t="s">
         <v>383</v>
@@ -9442,7 +9419,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="608" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B608" s="3" t="s">
         <v>720</v>
       </c>
@@ -9453,7 +9430,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="609" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B609" s="3" t="s">
         <v>720</v>
       </c>
@@ -9464,21 +9441,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="610" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B610" s="3"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="611" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B611" s="3"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="612" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B612" s="3"/>
       <c r="C612" s="1" t="s">
         <v>187</v>
@@ -9487,7 +9464,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="613" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B613" s="3"/>
       <c r="C613" s="1" t="s">
         <v>384</v>
@@ -9496,56 +9473,56 @@
         <v>384</v>
       </c>
     </row>
-    <row r="614" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B614" s="3"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="615" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B615" s="3"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="616" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B616" s="3"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="617" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B617" s="3"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="618" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B618" s="3"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="619" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B619" s="3"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="620" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B620" s="3"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="621" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B621" s="3"/>
       <c r="C621" s="1" t="s">
         <v>188</v>
@@ -9554,7 +9531,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="622" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B622" s="3" t="s">
         <v>720</v>
       </c>
@@ -9565,7 +9542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="623" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B623" s="3"/>
       <c r="C623" s="1" t="s">
         <v>190</v>
@@ -9574,7 +9551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="624" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B624" s="3"/>
       <c r="C624" s="1" t="s">
         <v>191</v>
@@ -9583,7 +9560,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="625" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B625" s="3"/>
       <c r="C625" s="1" t="s">
         <v>192</v>
@@ -9592,7 +9569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="626" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B626" s="3" t="s">
         <v>720</v>
       </c>
@@ -9603,56 +9580,56 @@
         <v>193</v>
       </c>
     </row>
-    <row r="627" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B627" s="3"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="628" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B628" s="3"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="629" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B629" s="3"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="630" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B630" s="3"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="631" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B631" s="3"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="632" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B632" s="3"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="633" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B633" s="3"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="634" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B634" s="3"/>
       <c r="C634" s="1" t="s">
         <v>194</v>
@@ -9661,7 +9638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="635" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B635" s="3" t="s">
         <v>720</v>
       </c>
@@ -9672,7 +9649,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="636" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B636" s="3" t="s">
         <v>720</v>
       </c>
@@ -9683,7 +9660,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="637" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B637" s="3"/>
       <c r="C637" s="1" t="s">
         <v>388</v>
@@ -9692,35 +9669,35 @@
         <v>388</v>
       </c>
     </row>
-    <row r="638" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B638" s="3"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="639" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B639" s="3"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="640" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B640" s="3"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="641" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B641" s="3"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="642" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B642" s="3" t="s">
         <v>720</v>
       </c>
@@ -9731,14 +9708,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="643" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B643" s="3"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="644" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B644" s="3"/>
       <c r="C644" s="1" t="s">
         <v>389</v>
@@ -9747,7 +9724,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="645" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B645" s="3" t="s">
         <v>720</v>
       </c>
@@ -9758,14 +9735,14 @@
         <v>198</v>
       </c>
     </row>
-    <row r="646" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B646" s="3"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="647" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B647" s="3"/>
       <c r="C647" s="1" t="s">
         <v>199</v>
@@ -9774,7 +9751,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="648" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B648" s="3"/>
       <c r="C648" s="1" t="s">
         <v>200</v>
@@ -9783,7 +9760,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="649" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B649" s="3"/>
       <c r="C649" s="1" t="s">
         <v>201</v>
@@ -9792,7 +9769,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="650" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B650" s="3" t="s">
         <v>720</v>
       </c>
@@ -9803,7 +9780,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="651" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B651" s="3"/>
       <c r="C651" s="1" t="s">
         <v>390</v>
@@ -9812,14 +9789,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="652" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B652" s="3"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="653" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B653" s="3"/>
       <c r="C653" s="1" t="s">
         <v>203</v>
@@ -9828,28 +9805,28 @@
         <v>203</v>
       </c>
     </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B654" s="3"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B655" s="3"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="656" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B656" s="3"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="657" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B657" s="3"/>
       <c r="C657" s="1" t="s">
         <v>391</v>
@@ -9858,7 +9835,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="658" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B658" s="3"/>
       <c r="C658" s="1" t="s">
         <v>392</v>
@@ -9867,7 +9844,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="659" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B659" s="3" t="s">
         <v>720</v>
       </c>
@@ -9878,7 +9855,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="660" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B660" s="3"/>
       <c r="C660" s="1" t="s">
         <v>393</v>
@@ -9887,28 +9864,28 @@
         <v>393</v>
       </c>
     </row>
-    <row r="661" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B661" s="3"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="662" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B662" s="3"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="663" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B663" s="3"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="664" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B664" s="3"/>
       <c r="C664" s="1" t="s">
         <v>394</v>
@@ -9917,7 +9894,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="665" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B665" s="3"/>
       <c r="C665" s="1" t="s">
         <v>395</v>
@@ -9926,21 +9903,21 @@
         <v>395</v>
       </c>
     </row>
-    <row r="666" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B666" s="3"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="667" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B667" s="3"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="668" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B668" s="3"/>
       <c r="C668" s="1" t="s">
         <v>396</v>
@@ -9949,12 +9926,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="669" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B669" s="3"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
     </row>
-    <row r="670" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B670" s="3"/>
       <c r="C670" s="1" t="s">
         <v>205</v>
@@ -9963,14 +9940,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="671" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B671" s="3"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="672" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B672" s="3"/>
       <c r="C672" s="1" t="s">
         <v>206</v>
@@ -9979,7 +9956,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="673" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B673" s="3"/>
       <c r="C673" s="1" t="s">
         <v>397</v>
@@ -9988,7 +9965,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="674" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B674" s="3" t="s">
         <v>720</v>
       </c>
@@ -9999,14 +9976,14 @@
         <v>207</v>
       </c>
     </row>
-    <row r="675" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B675" s="3"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="676" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B676" s="3" t="s">
         <v>720</v>
       </c>
@@ -10017,7 +9994,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="677" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B677" s="3"/>
       <c r="C677" s="1" t="s">
         <v>209</v>
@@ -10026,7 +10003,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="678" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B678" s="3" t="s">
         <v>720</v>
       </c>
@@ -10037,7 +10014,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="679" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B679" s="3"/>
       <c r="C679" s="1" t="s">
         <v>398</v>
@@ -10046,7 +10023,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="680" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B680" s="3"/>
       <c r="C680" s="1" t="s">
         <v>211</v>
@@ -10055,7 +10032,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="681" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B681" s="3"/>
       <c r="C681" s="1" t="s">
         <v>212</v>
@@ -10064,7 +10041,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="682" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B682" s="3" t="s">
         <v>720</v>
       </c>
@@ -10075,7 +10052,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="683" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B683" s="3" t="s">
         <v>720</v>
       </c>
@@ -10086,7 +10063,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="684" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B684" s="3"/>
       <c r="C684" s="1" t="s">
         <v>399</v>
@@ -10095,7 +10072,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="685" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B685" s="3" t="s">
         <v>720</v>
       </c>
@@ -10106,28 +10083,28 @@
         <v>400</v>
       </c>
     </row>
-    <row r="686" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B686" s="3"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="687" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B687" s="3"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="688" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B688" s="3"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="689" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B689" s="3"/>
       <c r="C689" s="1" t="s">
         <v>401</v>
@@ -10136,7 +10113,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="690" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B690" s="3" t="s">
         <v>720</v>
       </c>
@@ -10147,14 +10124,14 @@
         <v>402</v>
       </c>
     </row>
-    <row r="691" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B691" s="3"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="692" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B692" s="3"/>
       <c r="C692" s="1" t="s">
         <v>215</v>
@@ -10163,49 +10140,49 @@
         <v>215</v>
       </c>
     </row>
-    <row r="693" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B693" s="3"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="694" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B694" s="3"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="695" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B695" s="3"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="696" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B696" s="3"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="697" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B697" s="3"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="698" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B698" s="3"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="699" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B699" s="3"/>
       <c r="C699" s="1" t="s">
         <v>403</v>
@@ -10214,7 +10191,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="700" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B700" s="3" t="s">
         <v>720</v>
       </c>
@@ -10225,7 +10202,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="701" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B701" s="3"/>
       <c r="C701" s="1" t="s">
         <v>405</v>
@@ -10234,14 +10211,14 @@
         <v>405</v>
       </c>
     </row>
-    <row r="702" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B702" s="3"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="703" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B703" s="3"/>
       <c r="C703" s="1" t="s">
         <v>406</v>
@@ -10250,28 +10227,28 @@
         <v>406</v>
       </c>
     </row>
-    <row r="704" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B704" s="3"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="705" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B705" s="3"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="706" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B706" s="3"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="707" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B707" s="3"/>
       <c r="C707" s="1" t="s">
         <v>409</v>
@@ -10280,35 +10257,35 @@
         <v>409</v>
       </c>
     </row>
-    <row r="708" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B708" s="3"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="709" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B709" s="3"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="710" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B710" s="3"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="711" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B711" s="3"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="712" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B712" s="3"/>
       <c r="C712" s="1" t="s">
         <v>414</v>
@@ -10317,21 +10294,21 @@
         <v>414</v>
       </c>
     </row>
-    <row r="713" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B713" s="3"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="714" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B714" s="3"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="715" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B715" s="3" t="s">
         <v>720</v>
       </c>
@@ -10342,7 +10319,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="716" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B716" s="3"/>
       <c r="C716" s="1" t="s">
         <v>416</v>
@@ -10351,21 +10328,21 @@
         <v>416</v>
       </c>
     </row>
-    <row r="717" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B717" s="3"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="718" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B718" s="3"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="719" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B719" s="3"/>
       <c r="C719" s="1" t="s">
         <v>217</v>
@@ -10374,7 +10351,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="720" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B720" s="3" t="s">
         <v>720</v>
       </c>
@@ -10385,21 +10362,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="721" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B721" s="3"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="722" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B722" s="3"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="723" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B723" s="3"/>
       <c r="C723" s="1" t="s">
         <v>219</v>
@@ -10408,7 +10385,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="724" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B724" s="3" t="s">
         <v>720</v>
       </c>
@@ -10419,7 +10396,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="725" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B725" s="3"/>
       <c r="C725" s="1" t="s">
         <v>221</v>
@@ -10428,7 +10405,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="726" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B726" s="3" t="s">
         <v>720</v>
       </c>
@@ -10440,7 +10417,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B6:D726" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="B6:D726"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10448,237 +10425,202 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="C11:G115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C11:G97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="25" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>730</v>
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="7" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E62" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G68" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="76" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C80" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
-        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10689,26 +10631,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:E123"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>749</v>
       </c>
@@ -10716,22 +10658,22 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D12" s="8" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>756</v>
       </c>
@@ -10739,7 +10681,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>763</v>
       </c>
@@ -10747,7 +10689,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D15" s="8" t="s">
         <v>760</v>
       </c>
@@ -10755,22 +10697,22 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D16" s="8" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="8" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="8" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="8" t="s">
         <v>761</v>
       </c>
@@ -10778,12 +10720,12 @@
         <v>804</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="8" t="s">
         <v>806</v>
       </c>
@@ -10791,112 +10733,112 @@
         <v>807</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E40" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D43" s="8" t="s">
         <v>762</v>
       </c>
@@ -10904,12 +10846,12 @@
         <v>829</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D44" s="8" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>750</v>
       </c>
@@ -10920,7 +10862,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>764</v>
       </c>
@@ -10928,207 +10870,207 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D51" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D52" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D53" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D61" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D71" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D73" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D74" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D75" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D78" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D80" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D81" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D82" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D83" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D84" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D85" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D86" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
         <v>751</v>
       </c>
@@ -11136,7 +11078,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
         <v>764</v>
       </c>
@@ -11144,177 +11086,177 @@
         <v>778</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D89" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D90" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D91" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D93" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D94" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D95" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D97" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D98" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D100" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D101" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D102" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D103" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D104" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D105" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D106" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D107" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D109" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D110" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D111" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D112" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D113" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D114" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D115" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D116" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D117" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D118" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D119" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D120" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D121" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D122" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D123" t="s">
         <v>219</v>
       </c>
